--- a/data/MASTER Neon Literature Review.xlsx
+++ b/data/MASTER Neon Literature Review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwa-my.sharepoint.com/personal/23076523_student_uwa_edu_au/Documents/MPE Engineering Research Project GENG5511.2/TOTAL LIT DATA REVIEWS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwa-my.sharepoint.com/personal/23059859_student_uwa_edu_au/Documents/UWA/05. Year 5/Semester 1/GENG5511 MPE Engineering Research Project/Project/Research_Project/GENG5511_Thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{C34D0A32-8F5A-B84F-9541-71DD14F7DB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA0CF3D4-12A1-4D72-98EA-41FA07364D8C}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{C34D0A32-8F5A-B84F-9541-71DD14F7DB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5716279-A6AB-44A2-A6B4-71A9A7AC039B}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11295" activeTab="7" xr2:uid="{69D65117-2E76-C546-90A2-B362171284DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{69D65117-2E76-C546-90A2-B362171284DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell Volume " sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Heat of Sublimation" sheetId="12" r:id="rId7"/>
     <sheet name="Heat of Fusion" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1184,7 +1184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1219,6 +1219,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB4C6E7"/>
         <bgColor rgb="FFB4C6E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1268,7 +1280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1380,6 +1392,8 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1425,10 +1439,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1443,7 +1466,2670 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Thermal Expansion Coefficient'!$E$7:$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>3.7496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2497999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0011000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0000999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9999000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0000999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7480000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.9997999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9999000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.9999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.9999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.9999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0000999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.0049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.5049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Thermal Expansion Coefficient'!$F$7:$F$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>1.6760000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5550000000000004E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4550000000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1769999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3250000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.972E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3230000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.952E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.972E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3240000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.731000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.279E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6080000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9860000000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9050000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4250000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2810000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1940000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1180000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.0500000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.1160000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.1869999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0200000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3239999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.9760000000000004E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.9710000000000008E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0280000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2980000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.594E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9140000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.8E-5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.3799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.4600000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.9300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.7300000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.8600000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2700000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.5399999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.82E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1099999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.4099999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.7000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.31E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.65E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.0099999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.3899999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.7600000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.1500000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0050000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.0689999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.734E-6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.5369999999999994E-6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.3019999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.319E-5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.8349999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.9969999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.9549999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.283E-4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.773E-4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.364E-4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.0539999999999994E-4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.838E-4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.7110000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.6700000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7099999999999994E-4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.8239999999999994E-4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.992999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.0199999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.2689999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.542E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.8169999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.1080000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.3799999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.4600000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.9300000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.7300000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.8600000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.0170000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.2689999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.5390000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.818E-3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.1090000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.4090000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.7000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.9970000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.3119999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.6540000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4.0109999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.3860000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.764E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.1540000000000006E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8763-4559-A2A2-BA546D301869}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2065477423"/>
+        <c:axId val="2065477903"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2065477423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2065477903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2065477903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2065477423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Thermal Expansion Coefficient'!$E$7:$E$36,'Thermal Expansion Coefficient'!$E$58:$E$81)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>3.7496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2497999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0011000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0000999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9999000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0000999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7480000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.9997999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9999000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.9999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.9999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.9999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0000999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.0049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.5049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Thermal Expansion Coefficient'!$F$7:$F$36,'Thermal Expansion Coefficient'!$F$58:$F$81)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>1.6760000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5550000000000004E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4550000000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1769999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3250000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.972E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3230000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.952E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.972E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3240000000000004E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.731000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.279E-5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6080000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9860000000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9050000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4250000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.2810000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1940000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1180000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.0500000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.1160000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.1869999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0200000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.3239999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.9760000000000004E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.9710000000000008E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0280000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2980000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.594E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.9140000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0050000000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.0689999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.734E-6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.5369999999999994E-6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.3019999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.319E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.8349999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.9969999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.9549999999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.283E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.773E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.364E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.0539999999999994E-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.838E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.7110000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.6700000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.7099999999999994E-4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.8239999999999994E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.992999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0199999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.2689999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.542E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.8169999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.1080000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E018-46A0-AB79-01F9D595D6F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1922930847"/>
+        <c:axId val="1922929407"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1922930847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1922929407"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1922929407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1922930847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>937313</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>70953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>193260</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>151847</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7D5ABCC-2E79-2DCA-7478-AEED2A3F1E9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>937313</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>70953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>289890</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE1A7C12-191B-5545-B3CE-94FDEB88A1A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1811,12 +4497,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F513A9-1C82-3E45-A361-2C7180831D5E}">
   <dimension ref="A1:V116"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A60" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A92" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="5" max="5" width="14.375" customWidth="1"/>
@@ -1826,18 +4512,18 @@
     <col min="9" max="9" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="21" customFormat="1" ht="15.75">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:22" s="21" customFormat="1">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
       <c r="J1" s="21" t="s">
         <v>1</v>
       </c>
@@ -1845,20 +4531,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" ht="15.75">
+    <row r="2" spans="1:22" s="2" customFormat="1">
       <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
       <c r="J2" s="2">
         <f>6.02214076*10^23</f>
         <v>6.0221407599999999E+23</v>
@@ -1867,17 +4553,17 @@
         <v>20.1797</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="3" customFormat="1" ht="15.75">
-      <c r="A3" s="53" t="s">
+    <row r="3" spans="1:22" s="3" customFormat="1">
+      <c r="A3" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="57" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -1889,20 +4575,20 @@
       <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="L3" s="53" t="s">
+      <c r="I3" s="57"/>
+      <c r="L3" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="55" t="s">
+      <c r="O3" s="57" t="s">
         <v>8</v>
       </c>
       <c r="P3" s="6" t="s">
@@ -1914,17 +4600,17 @@
       <c r="R3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="55" t="s">
+      <c r="S3" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
     </row>
     <row r="4" spans="1:22" s="3" customFormat="1" ht="18">
-      <c r="A4" s="53"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1940,10 +4626,10 @@
       <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
       <c r="P4" s="6" t="s">
         <v>15</v>
       </c>
@@ -1953,19 +4639,19 @@
       <c r="R4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="57" t="s">
+      <c r="S4" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-    </row>
-    <row r="5" spans="1:22" s="11" customFormat="1" ht="18" thickBot="1">
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+    </row>
+    <row r="5" spans="1:22" s="11" customFormat="1" ht="17.25" thickBot="1">
       <c r="A5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
@@ -1981,10 +4667,10 @@
       <c r="I5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="54"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
       <c r="P5" s="10" t="s">
         <v>22</v>
       </c>
@@ -2008,33 +4694,34 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="16.5">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="51" t="s">
         <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="49">
         <v>1930</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="49">
         <v>4.5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="49">
         <f>(I6*10^-30)*$J$2*(1*10^6)/4</f>
         <v>13.995406497453365</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="49"/>
+      <c r="H6" s="49">
         <v>4.53</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="49">
         <f>H6^3</f>
         <v>92.959677000000013</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="49" t="s">
         <v>34</v>
       </c>
       <c r="M6" t="s">
@@ -2057,31 +4744,32 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="16.5">
-      <c r="A7" s="50"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="49">
         <v>1958</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="49">
         <v>4.2</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="49">
         <f t="shared" ref="F7:F12" si="0">(I7*10^-30)*$J$2*(1*10^6)/4</f>
         <v>13.080006262192979</v>
       </c>
-      <c r="H7">
+      <c r="G7" s="49"/>
+      <c r="H7" s="49">
         <v>4.4290000000000003</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="49">
         <f t="shared" ref="I7:I12" si="1">H7^3</f>
         <v>86.879445589000014</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="49" t="s">
         <v>34</v>
       </c>
       <c r="N7">
@@ -2101,31 +4789,32 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="16.5">
-      <c r="A8" s="50"/>
+      <c r="A8" s="52"/>
       <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="49">
         <v>1961</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="49">
         <v>4.2</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="49">
         <f t="shared" si="0"/>
         <v>13.537078677864452</v>
       </c>
-      <c r="H8">
+      <c r="G8" s="49"/>
+      <c r="H8" s="49">
         <v>4.4800000000000004</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="49">
         <f t="shared" si="1"/>
         <v>89.915392000000026</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="49" t="s">
         <v>41</v>
       </c>
       <c r="N8">
@@ -2145,31 +4834,32 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="16.5">
-      <c r="A9" s="50"/>
+      <c r="A9" s="52"/>
       <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="68">
         <v>1961</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="68">
         <v>4.2</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="68">
         <f t="shared" si="0"/>
         <v>13.392555932965443</v>
       </c>
-      <c r="H9">
+      <c r="G9" s="68"/>
+      <c r="H9" s="68">
         <v>4.4640000000000004</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="68">
         <f t="shared" si="1"/>
         <v>88.95544934400003</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="68" t="s">
         <v>42</v>
       </c>
       <c r="N9">
@@ -2189,10 +4879,10 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="16.5">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="54" t="s">
         <v>44</v>
       </c>
       <c r="C10">
@@ -2235,8 +4925,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="16.5">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="54"/>
       <c r="C11">
         <v>1962</v>
       </c>
@@ -2277,8 +4967,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="16.5">
-      <c r="A12" s="51"/>
-      <c r="B12" s="52"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="54"/>
       <c r="C12">
         <v>1962</v>
       </c>
@@ -2318,7 +5008,7 @@
         <v>2180.1999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="17.25">
+    <row r="13" spans="1:22" ht="16.5">
       <c r="A13" s="48" t="s">
         <v>46</v>
       </c>
@@ -2353,7 +5043,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75">
+    <row r="14" spans="1:22">
       <c r="A14" s="48" t="s">
         <v>46</v>
       </c>
@@ -2805,7 +5495,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="53" t="s">
         <v>51</v>
       </c>
       <c r="B36" s="32" t="s">
@@ -2833,7 +5523,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="51"/>
+      <c r="A37" s="53"/>
       <c r="C37">
         <v>1965</v>
       </c>
@@ -3179,28 +5869,29 @@
       <c r="B61" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="49">
         <v>1965</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="49">
         <v>7</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="49">
         <f>(I61*10^-30)*$J$2*(1*10^6)/4</f>
         <v>13.32965206047313</v>
       </c>
-      <c r="H61">
+      <c r="G61" s="49"/>
+      <c r="H61" s="49">
         <v>4.4569999999999999</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="49">
         <f>H61^3</f>
         <v>88.537631992999991</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15.75">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>56</v>
       </c>
@@ -3796,82 +6487,85 @@
       <c r="B103" t="s">
         <v>66</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="49">
         <v>1992</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="49">
         <v>26.4</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="49">
         <v>13.92</v>
       </c>
     </row>
     <row r="104" spans="2:10">
-      <c r="C104">
+      <c r="C104" s="49">
         <v>1972</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="49">
         <v>5</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="49">
         <f t="shared" ref="F104:F116" si="3">(I104*10^-30)*$J$2*(1*10^6)/4</f>
         <v>13.302753667575924</v>
       </c>
-      <c r="H104">
+      <c r="G104" s="49"/>
+      <c r="H104" s="49">
         <v>4.4539999999999997</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="49">
         <f t="shared" ref="I104:I105" si="4">H104^3</f>
         <v>88.358968663999988</v>
       </c>
     </row>
     <row r="105" spans="2:10">
-      <c r="C105">
+      <c r="C105" s="49">
         <v>1972</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="49">
         <v>22</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="49">
         <f t="shared" si="3"/>
         <v>13.302753667575924</v>
       </c>
-      <c r="H105">
+      <c r="G105" s="49"/>
+      <c r="H105" s="49">
         <v>4.4539999999999997</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="49">
         <f t="shared" si="4"/>
         <v>88.358968663999988</v>
       </c>
     </row>
     <row r="106" spans="2:10">
-      <c r="C106">
+      <c r="C106" s="49">
         <v>1996</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="49">
         <v>4.25</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="49">
         <f t="shared" si="3"/>
         <v>13.312163984893694</v>
       </c>
-      <c r="H106">
+      <c r="G106" s="49"/>
+      <c r="H106" s="49">
         <f>J106*10</f>
         <v>4.45505</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="49">
         <f>H106^3</f>
         <v>88.421473462162623</v>
       </c>
@@ -3880,24 +6574,25 @@
       </c>
     </row>
     <row r="107" spans="2:10">
-      <c r="C107">
+      <c r="C107" s="49">
         <v>1996</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="49">
         <v>10.199999999999999</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="49">
         <f t="shared" si="3"/>
         <v>13.47769925847691</v>
       </c>
-      <c r="H107">
+      <c r="G107" s="49"/>
+      <c r="H107" s="49">
         <f t="shared" ref="H107:H112" si="5">J107*10</f>
         <v>4.4734400000000001</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="49">
         <f t="shared" ref="I107:I116" si="6">H107^3</f>
         <v>89.520984617283588</v>
       </c>
@@ -3906,24 +6601,25 @@
       </c>
     </row>
     <row r="108" spans="2:10">
-      <c r="C108">
+      <c r="C108" s="49">
         <v>1996</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="49">
         <v>20.2</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="49">
         <f t="shared" si="3"/>
         <v>13.715988523648688</v>
       </c>
-      <c r="H108">
+      <c r="G108" s="49"/>
+      <c r="H108" s="49">
         <f t="shared" si="5"/>
         <v>4.4996499999999999</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="49">
         <f t="shared" si="6"/>
         <v>91.103739153707124</v>
       </c>
@@ -3932,24 +6628,25 @@
       </c>
     </row>
     <row r="109" spans="2:10">
-      <c r="C109">
+      <c r="C109" s="49">
         <v>1996</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="49">
         <v>4.34</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="49">
         <f t="shared" si="3"/>
         <v>13.224506760130165</v>
       </c>
-      <c r="H109">
+      <c r="G109" s="49"/>
+      <c r="H109" s="49">
         <f t="shared" si="5"/>
         <v>4.4452499999999997</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="49">
         <f t="shared" si="6"/>
         <v>87.839240477203106</v>
       </c>
@@ -3958,24 +6655,25 @@
       </c>
     </row>
     <row r="110" spans="2:10">
-      <c r="C110">
+      <c r="C110" s="49">
         <v>1996</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="49">
         <v>10.8</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="49">
         <f t="shared" si="3"/>
         <v>13.241471365518006</v>
       </c>
-      <c r="H110">
+      <c r="G110" s="49"/>
+      <c r="H110" s="49">
         <f t="shared" si="5"/>
         <v>4.4471500000000006</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="49">
         <f t="shared" si="6"/>
         <v>87.951922037225899</v>
       </c>
@@ -3984,24 +6682,25 @@
       </c>
     </row>
     <row r="111" spans="2:10">
-      <c r="C111">
+      <c r="C111" s="49">
         <v>1996</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="49">
         <v>15.2</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="49">
         <f t="shared" si="3"/>
         <v>13.416421084689842</v>
       </c>
-      <c r="H111">
+      <c r="G111" s="49"/>
+      <c r="H111" s="49">
         <f t="shared" si="5"/>
         <v>4.4666499999999996</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="49">
         <f t="shared" si="6"/>
         <v>89.113965411129598</v>
       </c>
@@ -4010,24 +6709,25 @@
       </c>
     </row>
     <row r="112" spans="2:10">
-      <c r="C112">
+      <c r="C112" s="49">
         <v>1996</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="49">
         <v>20.100000000000001</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="49">
         <f t="shared" si="3"/>
         <v>13.603815858010986</v>
       </c>
-      <c r="H112">
+      <c r="G112" s="49"/>
+      <c r="H112" s="49">
         <f t="shared" si="5"/>
         <v>4.4873500000000002</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="49">
         <f t="shared" si="6"/>
         <v>90.358670779465385</v>
       </c>
@@ -4102,23 +6802,24 @@
       </c>
     </row>
     <row r="116" spans="3:9">
-      <c r="C116">
+      <c r="C116" s="49">
         <v>1964</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="49">
         <v>10</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="49">
         <f t="shared" si="3"/>
         <v>14.088296061480614</v>
       </c>
-      <c r="H116">
+      <c r="G116" s="49"/>
+      <c r="H116" s="49">
         <v>4.54</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="49">
         <f t="shared" si="6"/>
         <v>93.576663999999994</v>
       </c>
@@ -4161,12 +6862,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34482523-6132-7E48-BEBF-BE687D0AD34C}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView zoomScale="69" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="F127" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A56" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="25.625" customWidth="1"/>
     <col min="5" max="5" width="14.375" customWidth="1"/>
@@ -4176,98 +6877,98 @@
     <col min="9" max="9" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="15.75">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:9" s="21" customFormat="1">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="15.75">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="15.75">
-      <c r="A4" s="53"/>
-      <c r="B4" s="55" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="64"/>
+    </row>
+    <row r="4" spans="1:9" s="3" customFormat="1">
+      <c r="A4" s="55"/>
+      <c r="B4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="57" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="53"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="59" t="s">
         <v>77</v>
       </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" s="11" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9">
@@ -5232,480 +7933,480 @@
     <row r="58" spans="1:7">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
-      <c r="C58" s="18">
+      <c r="C58" s="70">
         <v>1975</v>
       </c>
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="18">
+      <c r="E58" s="70">
         <v>0.5</v>
       </c>
-      <c r="F58" s="18">
+      <c r="F58" s="70">
         <f>G58*10^-6</f>
         <v>1.0050000000000001E-7</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G58" s="70">
         <v>0.10050000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
-      <c r="C59" s="18">
+      <c r="C59" s="70">
         <v>1975</v>
       </c>
-      <c r="D59" s="18" t="s">
+      <c r="D59" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E59" s="70">
         <v>1</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F59" s="70">
         <f t="shared" ref="F59:F81" si="1">G59*10^-6</f>
         <v>8.0689999999999995E-7</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G59" s="70">
         <v>0.80689999999999995</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
-      <c r="C60" s="18">
+      <c r="C60" s="70">
         <v>1975</v>
       </c>
-      <c r="D60" s="18" t="s">
+      <c r="D60" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="E60" s="18">
+      <c r="E60" s="70">
         <v>1.5</v>
       </c>
-      <c r="F60" s="18">
+      <c r="F60" s="70">
         <f t="shared" si="1"/>
         <v>2.734E-6</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G60" s="70">
         <v>2.734</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
-      <c r="C61" s="18">
+      <c r="C61" s="70">
         <v>1975</v>
       </c>
-      <c r="D61" s="18" t="s">
+      <c r="D61" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E61" s="70">
         <v>2</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F61" s="70">
         <f t="shared" si="1"/>
         <v>6.5369999999999994E-6</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G61" s="70">
         <v>6.5369999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
-      <c r="C62" s="18">
+      <c r="C62" s="70">
         <v>1975</v>
       </c>
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="E62" s="18">
+      <c r="E62" s="70">
         <v>2.5</v>
       </c>
-      <c r="F62" s="18">
+      <c r="F62" s="70">
         <f t="shared" si="1"/>
         <v>1.3019999999999999E-5</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G62" s="70">
         <v>13.02</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
-      <c r="C63" s="18">
+      <c r="C63" s="70">
         <v>1975</v>
       </c>
-      <c r="D63" s="18" t="s">
+      <c r="D63" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E63" s="70">
         <v>3</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F63" s="70">
         <f t="shared" si="1"/>
         <v>2.319E-5</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G63" s="70">
         <v>23.19</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
-      <c r="C64" s="18">
+      <c r="C64" s="70">
         <v>1975</v>
       </c>
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="E64" s="18">
+      <c r="E64" s="70">
         <v>3.5</v>
       </c>
-      <c r="F64" s="18">
+      <c r="F64" s="70">
         <f t="shared" si="1"/>
         <v>3.8349999999999997E-5</v>
       </c>
-      <c r="G64" s="18">
+      <c r="G64" s="70">
         <v>38.35</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
-      <c r="C65" s="18">
+      <c r="C65" s="70">
         <v>1975</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="E65" s="18">
+      <c r="E65" s="70">
         <v>4</v>
       </c>
-      <c r="F65" s="18">
+      <c r="F65" s="70">
         <f t="shared" si="1"/>
         <v>5.9969999999999997E-5</v>
       </c>
-      <c r="G65" s="18">
+      <c r="G65" s="70">
         <v>59.97</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
-      <c r="C66" s="18">
+      <c r="C66" s="70">
         <v>1975</v>
       </c>
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="E66" s="18">
+      <c r="E66" s="70">
         <v>4.5</v>
       </c>
-      <c r="F66" s="18">
+      <c r="F66" s="70">
         <f t="shared" si="1"/>
         <v>8.9549999999999995E-5</v>
       </c>
-      <c r="G66" s="18">
+      <c r="G66" s="70">
         <v>89.55</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
-      <c r="C67" s="18">
+      <c r="C67" s="70">
         <v>1975</v>
       </c>
-      <c r="D67" s="18" t="s">
+      <c r="D67" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E67" s="70">
         <v>5</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F67" s="70">
         <f t="shared" si="1"/>
         <v>1.283E-4</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G67" s="70">
         <v>128.30000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
-      <c r="C68" s="18">
+      <c r="C68" s="69">
         <v>1975</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E68" s="18">
+      <c r="E68" s="69">
         <v>5.5</v>
       </c>
-      <c r="F68" s="18">
+      <c r="F68" s="69">
         <f t="shared" si="1"/>
         <v>1.773E-4</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G68" s="69">
         <v>177.3</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
-      <c r="C69" s="18">
+      <c r="C69" s="69">
         <v>1975</v>
       </c>
-      <c r="D69" s="18" t="s">
+      <c r="D69" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="69">
         <v>6</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F69" s="69">
         <f t="shared" si="1"/>
         <v>2.364E-4</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G69" s="69">
         <v>236.4</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
-      <c r="C70" s="18">
+      <c r="C70" s="69">
         <v>1975</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D70" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E70" s="18">
+      <c r="E70" s="69">
         <v>6.5</v>
       </c>
-      <c r="F70" s="18">
+      <c r="F70" s="69">
         <f t="shared" si="1"/>
         <v>3.0539999999999994E-4</v>
       </c>
-      <c r="G70" s="18">
+      <c r="G70" s="69">
         <v>305.39999999999998</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
-      <c r="C71" s="18">
+      <c r="C71" s="69">
         <v>1975</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E71" s="69">
         <v>7</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F71" s="69">
         <f t="shared" si="1"/>
         <v>3.838E-4</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G71" s="69">
         <v>383.8</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
-      <c r="C72" s="18">
+      <c r="C72" s="69">
         <v>1975</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E72" s="18">
+      <c r="E72" s="69">
         <v>7.5</v>
       </c>
-      <c r="F72" s="18">
+      <c r="F72" s="69">
         <f t="shared" si="1"/>
         <v>4.7110000000000001E-4</v>
       </c>
-      <c r="G72" s="18">
+      <c r="G72" s="69">
         <v>471.1</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
-      <c r="C73" s="18">
+      <c r="C73" s="69">
         <v>1975</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E73" s="69">
         <v>8</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F73" s="69">
         <f t="shared" si="1"/>
         <v>5.6700000000000001E-4</v>
       </c>
-      <c r="G73" s="18">
+      <c r="G73" s="69">
         <v>567</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
-      <c r="C74" s="18">
+      <c r="C74" s="69">
         <v>1975</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E74" s="18">
+      <c r="E74" s="69">
         <v>8.5</v>
       </c>
-      <c r="F74" s="18">
+      <c r="F74" s="69">
         <f t="shared" si="1"/>
         <v>6.7099999999999994E-4</v>
       </c>
-      <c r="G74" s="18">
+      <c r="G74" s="69">
         <v>671</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
-      <c r="C75" s="18">
+      <c r="C75" s="69">
         <v>1975</v>
       </c>
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E75" s="69">
         <v>9</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="69">
         <f t="shared" si="1"/>
         <v>7.8239999999999994E-4</v>
       </c>
-      <c r="G75" s="18">
+      <c r="G75" s="69">
         <v>782.4</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
-      <c r="C76" s="18">
+      <c r="C76" s="69">
         <v>1975</v>
       </c>
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E76" s="18">
+      <c r="E76" s="69">
         <v>9.5</v>
       </c>
-      <c r="F76" s="18">
+      <c r="F76" s="69">
         <f t="shared" si="1"/>
         <v>8.992999999999999E-4</v>
       </c>
-      <c r="G76" s="18">
+      <c r="G76" s="69">
         <v>899.3</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
-      <c r="C77" s="18">
+      <c r="C77" s="69">
         <v>1975</v>
       </c>
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E77" s="18">
+      <c r="E77" s="69">
         <v>10</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F77" s="69">
         <f t="shared" si="1"/>
         <v>1.0199999999999999E-3</v>
       </c>
-      <c r="G77" s="18">
+      <c r="G77" s="69">
         <v>1020</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="18"/>
       <c r="B78" s="18"/>
-      <c r="C78" s="18">
+      <c r="C78" s="69">
         <v>1975</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E78" s="18">
+      <c r="E78" s="69">
         <v>11</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="69">
         <f t="shared" si="1"/>
         <v>1.2689999999999999E-3</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G78" s="69">
         <v>1269</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
-      <c r="C79" s="18">
+      <c r="C79" s="69">
         <v>1975</v>
       </c>
-      <c r="D79" s="18" t="s">
+      <c r="D79" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E79" s="18">
+      <c r="E79" s="69">
         <v>12</v>
       </c>
-      <c r="F79" s="18">
+      <c r="F79" s="69">
         <f t="shared" si="1"/>
         <v>1.542E-3</v>
       </c>
-      <c r="G79" s="18">
+      <c r="G79" s="69">
         <v>1542</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
-      <c r="C80" s="18">
+      <c r="C80" s="69">
         <v>1975</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="D80" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E80" s="18">
+      <c r="E80" s="69">
         <v>13</v>
       </c>
-      <c r="F80" s="18">
+      <c r="F80" s="69">
         <f t="shared" si="1"/>
         <v>1.8169999999999998E-3</v>
       </c>
-      <c r="G80" s="18">
+      <c r="G80" s="69">
         <v>1817</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
-      <c r="C81" s="18">
+      <c r="C81" s="69">
         <v>1975</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="E81" s="18">
+      <c r="E81" s="69">
         <v>14</v>
       </c>
-      <c r="F81" s="18">
+      <c r="F81" s="69">
         <f t="shared" si="1"/>
         <v>2.1080000000000001E-3</v>
       </c>
-      <c r="G81" s="18">
+      <c r="G81" s="69">
         <v>2108</v>
       </c>
     </row>
@@ -6147,6 +8848,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6154,12 +8856,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855DA3B9-8C38-4A4E-B8C1-649E45A85AE6}">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="C36" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="L55" sqref="L55"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.75" style="18"/>
     <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
@@ -6177,114 +8879,114 @@
     <col min="19" max="16384" width="10.75" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="22" customFormat="1" ht="15.75">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:18" s="22" customFormat="1">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-    </row>
-    <row r="2" spans="1:18" s="15" customFormat="1" ht="15.75">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+    </row>
+    <row r="2" spans="1:18" s="15" customFormat="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="57" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="57" t="s">
         <v>8</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="55" t="s">
+      <c r="P3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="55" t="s">
+      <c r="Q3" s="57" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
       <c r="O4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
     </row>
     <row r="5" spans="1:18" s="17" customFormat="1" ht="19.5" thickBot="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
@@ -6300,9 +9002,9 @@
       <c r="I5" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
       <c r="O5" s="10" t="s">
         <v>22</v>
       </c>
@@ -6318,16 +9020,16 @@
     </row>
     <row r="6" spans="1:18">
       <c r="B6" s="19"/>
-      <c r="C6">
+      <c r="C6" s="66">
         <v>1967</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="67">
         <v>4</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="67">
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="M6">
@@ -6345,16 +9047,16 @@
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="19"/>
-      <c r="C7">
+      <c r="C7" s="66">
         <v>1967</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="67">
         <v>6</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="67">
         <v>9.1E-4</v>
       </c>
       <c r="M7">
@@ -6372,16 +9074,16 @@
     </row>
     <row r="8" spans="1:18">
       <c r="B8" s="19"/>
-      <c r="C8">
+      <c r="C8" s="66">
         <v>1967</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="67">
         <v>8</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="67">
         <v>9.2000000000000003E-4</v>
       </c>
       <c r="M8">
@@ -6399,16 +9101,16 @@
     </row>
     <row r="9" spans="1:18">
       <c r="B9" s="19"/>
-      <c r="C9">
+      <c r="C9" s="66">
         <v>1967</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="67">
         <v>10</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="67">
         <v>9.3999999999999997E-4</v>
       </c>
       <c r="M9">
@@ -6426,16 +9128,16 @@
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="19"/>
-      <c r="C10">
+      <c r="C10" s="66">
         <v>1967</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="67">
         <v>12</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="67">
         <v>9.6000000000000002E-4</v>
       </c>
       <c r="M10">
@@ -6453,16 +9155,16 @@
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="19"/>
-      <c r="C11">
+      <c r="C11" s="66">
         <v>1967</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="67">
         <v>14</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="67">
         <v>1E-3</v>
       </c>
       <c r="M11">
@@ -6480,16 +9182,16 @@
     </row>
     <row r="12" spans="1:18">
       <c r="B12" s="19"/>
-      <c r="C12">
+      <c r="C12" s="66">
         <v>1967</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="67">
         <v>16</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="67">
         <v>1.07E-3</v>
       </c>
       <c r="M12">
@@ -6507,16 +9209,16 @@
     </row>
     <row r="13" spans="1:18">
       <c r="B13" s="19"/>
-      <c r="C13">
+      <c r="C13" s="66">
         <v>1967</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="67">
         <v>18</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="67">
         <v>1.24E-3</v>
       </c>
       <c r="M13">
@@ -6534,16 +9236,16 @@
     </row>
     <row r="14" spans="1:18">
       <c r="B14" s="19"/>
-      <c r="C14">
+      <c r="C14" s="66">
         <v>1967</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="67">
         <v>20</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="67">
         <v>1.6199999999999999E-3</v>
       </c>
       <c r="M14">
@@ -7162,16 +9864,16 @@
       </c>
     </row>
     <row r="38" spans="3:16">
-      <c r="C38">
+      <c r="C38" s="49">
         <v>1972</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="50">
         <v>0</v>
       </c>
-      <c r="F38" s="23">
+      <c r="F38" s="50">
         <v>8.8500000000000004E-4</v>
       </c>
       <c r="M38">
@@ -7402,7 +10104,7 @@
       <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.75" style="18"/>
     <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
@@ -7420,75 +10122,75 @@
     <col min="19" max="16384" width="10.75" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="21" customFormat="1" ht="15.75">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:18" s="21" customFormat="1">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-    </row>
-    <row r="2" spans="1:18" s="14" customFormat="1" ht="15.75">
-      <c r="B2" s="63" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+    </row>
+    <row r="2" spans="1:18" s="14" customFormat="1">
+      <c r="B2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:18" s="6" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="57" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
     </row>
     <row r="4" spans="1:18" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="6" t="s">
         <v>103</v>
       </c>
@@ -7501,17 +10203,17 @@
       <c r="K4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
     </row>
     <row r="5" spans="1:18" s="10" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
@@ -7524,9 +10226,9 @@
       <c r="J5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
@@ -7915,7 +10617,7 @@
         <v>12.3</v>
       </c>
       <c r="F30" s="26">
-        <f>4.184*G30</f>
+        <f t="shared" ref="F30:F42" si="0">4.184*G30</f>
         <v>8.7027200000000011</v>
       </c>
       <c r="G30" s="28">
@@ -7933,7 +10635,7 @@
         <v>13.1</v>
       </c>
       <c r="F31" s="26">
-        <f>4.184*G31</f>
+        <f t="shared" si="0"/>
         <v>9.7487200000000005</v>
       </c>
       <c r="G31" s="25">
@@ -7951,7 +10653,7 @@
         <v>14.71</v>
       </c>
       <c r="F32" s="26">
-        <f>4.184*G32</f>
+        <f t="shared" si="0"/>
         <v>11.673360000000001</v>
       </c>
       <c r="G32" s="28">
@@ -7969,7 +10671,7 @@
         <v>16.63</v>
       </c>
       <c r="F33" s="26">
-        <f>4.184*G33</f>
+        <f t="shared" si="0"/>
         <v>14.016400000000001</v>
       </c>
       <c r="G33" s="25">
@@ -7987,7 +10689,7 @@
         <v>18.54</v>
       </c>
       <c r="F34" s="26">
-        <f>4.184*G34</f>
+        <f t="shared" si="0"/>
         <v>16.066559999999999</v>
       </c>
       <c r="G34" s="28">
@@ -8005,7 +10707,7 @@
         <v>18.850000000000001</v>
       </c>
       <c r="F35" s="26">
-        <f>4.184*G35</f>
+        <f t="shared" si="0"/>
         <v>16.610480000000003</v>
       </c>
       <c r="G35" s="25">
@@ -8023,7 +10725,7 @@
         <v>20</v>
       </c>
       <c r="F36" s="26">
-        <f>4.184*G36</f>
+        <f t="shared" si="0"/>
         <v>17.865679999999998</v>
       </c>
       <c r="G36" s="28">
@@ -8041,7 +10743,7 @@
         <v>20.85</v>
       </c>
       <c r="F37" s="26">
-        <f>4.184*G37</f>
+        <f t="shared" si="0"/>
         <v>19.204560000000001</v>
       </c>
       <c r="G37" s="25">
@@ -8059,7 +10761,7 @@
         <v>20.9</v>
       </c>
       <c r="F38" s="26">
-        <f>4.184*G38</f>
+        <f t="shared" si="0"/>
         <v>19.204560000000001</v>
       </c>
       <c r="G38" s="28">
@@ -8077,7 +10779,7 @@
         <v>22.1</v>
       </c>
       <c r="F39" s="26">
-        <f>4.184*G39</f>
+        <f t="shared" si="0"/>
         <v>21.045520000000003</v>
       </c>
       <c r="G39" s="25">
@@ -8095,7 +10797,7 @@
         <v>22.7</v>
       </c>
       <c r="F40" s="26">
-        <f>4.184*G40</f>
+        <f t="shared" si="0"/>
         <v>22.1752</v>
       </c>
       <c r="G40" s="28">
@@ -8113,7 +10815,7 @@
         <v>22.85</v>
       </c>
       <c r="F41" s="26">
-        <f>4.184*G41</f>
+        <f t="shared" si="0"/>
         <v>22.635440000000003</v>
       </c>
       <c r="G41" s="25">
@@ -8131,7 +10833,7 @@
         <v>23.5</v>
       </c>
       <c r="F42" s="26">
-        <f>4.184*G42</f>
+        <f t="shared" si="0"/>
         <v>24.350880000000004</v>
       </c>
       <c r="G42" s="28">
@@ -8169,7 +10871,7 @@
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.875" style="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.625" style="18" customWidth="1"/>
@@ -8182,76 +10884,76 @@
     <col min="10" max="10" width="53.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="14"/>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="53"/>
-      <c r="B3" s="55" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="55"/>
+      <c r="B3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="57" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="8"/>
       <c r="J3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75">
-      <c r="A4" s="53"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+    <row r="4" spans="1:10">
+      <c r="A4" s="55"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
@@ -8268,7 +10970,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="29.25">
+    <row r="6" spans="1:10">
       <c r="B6" s="24" t="s">
         <v>112</v>
       </c>
@@ -10142,7 +12844,7 @@
         <v>312.12</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="30">
+    <row r="110" spans="1:9">
       <c r="A110" s="36" t="s">
         <v>121</v>
       </c>
@@ -13571,7 +16273,7 @@
       <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.75" style="18"/>
     <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
@@ -13587,82 +16289,82 @@
     <col min="17" max="16384" width="10.75" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="21" customFormat="1" ht="15.75">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:16" s="21" customFormat="1">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-    </row>
-    <row r="2" spans="1:16" s="15" customFormat="1" ht="15.75">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+    </row>
+    <row r="2" spans="1:16" s="15" customFormat="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="57" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="8"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
     </row>
     <row r="4" spans="1:16" s="4" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
       <c r="I4" s="8"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
     </row>
     <row r="5" spans="1:16" s="17" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
@@ -14844,7 +17546,7 @@
       <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.75" style="18"/>
     <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
@@ -14862,64 +17564,64 @@
     <col min="19" max="16384" width="10.75" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="21" customFormat="1" ht="15.75">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:18" s="21" customFormat="1">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-    </row>
-    <row r="2" spans="1:18" s="15" customFormat="1" ht="15.75">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+    </row>
+    <row r="2" spans="1:18" s="15" customFormat="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="57" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
@@ -14935,18 +17637,18 @@
       <c r="I4" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
     </row>
     <row r="5" spans="1:18" s="17" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
@@ -14962,9 +17664,9 @@
       <c r="I5" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
       <c r="O5" s="10"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="16"/>
@@ -15074,12 +17776,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E72F4D-3F4B-D946-96F8-0C48CECE6608}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="125" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="10.75" style="18"/>
     <col min="2" max="2" width="25.625" style="18" customWidth="1"/>
@@ -15097,40 +17799,40 @@
     <col min="19" max="16384" width="10.75" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="21" customFormat="1" ht="15.75">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:18" s="21" customFormat="1">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-    </row>
-    <row r="2" spans="1:18" s="14" customFormat="1" ht="15.75">
-      <c r="B2" s="63" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+    </row>
+    <row r="2" spans="1:18" s="14" customFormat="1">
+      <c r="B2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:18" s="6" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="55"/>
+      <c r="B3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="57" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -15139,30 +17841,30 @@
       <c r="F3" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="57" t="s">
         <v>8</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="55" t="s">
+      <c r="P3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="55" t="s">
+      <c r="Q3" s="57" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
@@ -15171,20 +17873,20 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
       <c r="O4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
     </row>
     <row r="5" spans="1:18" s="10" customFormat="1" ht="19.5" thickBot="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
@@ -15200,9 +17902,9 @@
       <c r="I5" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
       <c r="O5" s="10" t="s">
         <v>22</v>
       </c>

--- a/data/MASTER Neon Literature Review.xlsx
+++ b/data/MASTER Neon Literature Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwa-my.sharepoint.com/personal/23059859_student_uwa_edu_au/Documents/UWA/05. Year 5/Semester 1/GENG5511 MPE Engineering Research Project/Project/Research_Project/GENG5511_Thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{C34D0A32-8F5A-B84F-9541-71DD14F7DB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5716279-A6AB-44A2-A6B4-71A9A7AC039B}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{C34D0A32-8F5A-B84F-9541-71DD14F7DB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9F20F8B-F28B-41CD-B9F6-A9F6507882C8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{69D65117-2E76-C546-90A2-B362171284DD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{69D65117-2E76-C546-90A2-B362171284DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell Volume " sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Heat of Sublimation" sheetId="12" r:id="rId7"/>
     <sheet name="Heat of Fusion" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1184,7 +1184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1231,6 +1231,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFB4C6E7"/>
       </patternFill>
     </fill>
   </fills>
@@ -1394,6 +1400,29 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1406,26 +1435,8 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1439,15 +1450,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1543,296 +1549,206 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Thermal Expansion Coefficient'!$E$7:$E$102</c:f>
+              <c:f>'Thermal Expansion Coefficient'!$E$37:$E$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
-                  <c:v>3.7496</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2497999999999996</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0004</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0011000000000001</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.0000999999999998</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9999000000000002</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.0000999999999998</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="26">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="27">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.7480000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.4980000000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.9997999999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.9999000000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10.9999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>11.9999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>11.9999</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>4.5</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="30">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="31">
                   <c:v>5.5</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.0000999999999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="32">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.0049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.5049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="35">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="41">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="43">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="44">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="45">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="58">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="59">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="60">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="61">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="62">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="63">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="64">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="50">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="65">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="95">
                   <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
@@ -1840,296 +1756,206 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Thermal Expansion Coefficient'!$F$7:$F$102</c:f>
+              <c:f>'Thermal Expansion Coefficient'!$F$37:$F$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
+                <c:ptCount val="66"/>
                 <c:pt idx="0">
-                  <c:v>1.6760000000000002E-5</c:v>
+                  <c:v>1.8E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5550000000000004E-5</c:v>
+                  <c:v>6.0000000000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4550000000000005E-5</c:v>
+                  <c:v>1.3799999999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1769999999999998E-5</c:v>
+                  <c:v>2.4600000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3250000000000002E-4</c:v>
+                  <c:v>3.9300000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.972E-4</c:v>
+                  <c:v>5.7300000000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3230000000000002E-4</c:v>
+                  <c:v>7.8600000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.952E-4</c:v>
+                  <c:v>1.0200000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.972E-4</c:v>
+                  <c:v>1.2700000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3240000000000004E-6</c:v>
+                  <c:v>1.5399999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.731000000000001E-6</c:v>
+                  <c:v>1.82E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.279E-5</c:v>
+                  <c:v>2.1099999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6080000000000002E-5</c:v>
+                  <c:v>2.4099999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.9860000000000005E-5</c:v>
+                  <c:v>2.7000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9050000000000002E-4</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.4250000000000003E-4</c:v>
+                  <c:v>3.31E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.2810000000000005E-4</c:v>
+                  <c:v>3.65E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.1940000000000005E-4</c:v>
+                  <c:v>4.0099999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.1180000000000002E-4</c:v>
+                  <c:v>4.3899999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.0500000000000001E-4</c:v>
+                  <c:v>4.7600000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.1160000000000001E-4</c:v>
+                  <c:v>5.1500000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.1869999999999998E-4</c:v>
+                  <c:v>1.0050000000000001E-7</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.0200000000000002E-5</c:v>
+                  <c:v>8.0689999999999995E-7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.3239999999999999E-5</c:v>
+                  <c:v>2.734E-6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.9760000000000004E-5</c:v>
+                  <c:v>6.5369999999999994E-6</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.9710000000000008E-5</c:v>
+                  <c:v>1.3019999999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0280000000000001E-4</c:v>
+                  <c:v>2.319E-5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2980000000000001E-4</c:v>
+                  <c:v>3.8349999999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.594E-4</c:v>
+                  <c:v>5.9969999999999997E-5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.9140000000000002E-4</c:v>
+                  <c:v>8.9549999999999995E-5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.8E-5</c:v>
+                  <c:v>1.283E-4</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>1.773E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.364E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.0539999999999994E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.838E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.7110000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.6700000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.7099999999999994E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.8239999999999994E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.992999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0199999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2689999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.542E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.8169999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.1080000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>6.0000000000000002E-5</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="47">
                   <c:v>1.3799999999999999E-4</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="48">
                   <c:v>2.4600000000000002E-4</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="49">
                   <c:v>3.9300000000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="50">
                   <c:v>5.7300000000000005E-4</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="51">
                   <c:v>7.8600000000000002E-4</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.0200000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.2700000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.5399999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.82E-3</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.1099999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.4099999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="52">
+                  <c:v>1.0170000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.2689999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.5390000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.818E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.1090000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.4090000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>2.7000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.31E-3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.65E-3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.0099999999999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.3899999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4.7600000000000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5.1500000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.0050000000000001E-7</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>8.0689999999999995E-7</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.734E-6</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6.5369999999999994E-6</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.3019999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2.319E-5</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.8349999999999997E-5</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.9969999999999997E-5</c:v>
-                </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.9549999999999995E-5</c:v>
+                  <c:v>2.9970000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.283E-4</c:v>
+                  <c:v>3.3119999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.773E-4</c:v>
+                  <c:v>3.6540000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.364E-4</c:v>
+                  <c:v>4.0109999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3.0539999999999994E-4</c:v>
+                  <c:v>4.3860000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.838E-4</c:v>
+                  <c:v>4.764E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.7110000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>5.6700000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6.7099999999999994E-4</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>7.8239999999999994E-4</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>8.992999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.0199999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.2689999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.542E-3</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.8169999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2.1080000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.7999999999999999E-6</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>6.0000000000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.3799999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.4600000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>3.9300000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>5.7300000000000005E-4</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>7.8600000000000002E-4</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.0170000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.2689999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.5390000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.818E-3</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.1090000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.4090000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.7000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.9970000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>3.3119999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>3.6540000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>4.0109999999999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>4.3860000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>4.764E-3</c:v>
-                </c:pt>
-                <c:pt idx="95">
                   <c:v>5.1540000000000006E-3</c:v>
                 </c:pt>
               </c:numCache>
@@ -2940,6 +2766,528 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Compressibility Bulk Modulus'!$E$6:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>19.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.55</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Compressibility Bulk Modulus'!$F$6:$F$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="0">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2000000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.07E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.24E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6199999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.8500000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8599999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.8800000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.9099999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.9599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0300000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.1299999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.2599999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.4200000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.6199999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.8700000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.15E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.2600000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.32E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.39E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4599999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5399999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.6199999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.7099999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.8500000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.1100000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.7400000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.2099999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.23E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.31E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.8999999999999995E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E43E-4D13-85B9-07FE8FEE99B5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1283210239"/>
+        <c:axId val="1283202079"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1283210239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1283202079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1283202079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="8.0000000000000026E-4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1283210239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2981,6 +3329,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4052,20 +4440,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>937313</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>70953</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590950</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>140225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>193260</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>151847</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>851351</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>13301</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4092,16 +4996,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>937313</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>70953</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>106041</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>36318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>289890</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>463072</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4130,6 +5034,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>770658</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>195695</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>787976</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>29440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD1AEE0E-79F0-38F4-66C2-607EF2D2B909}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4498,8 +5443,8 @@
   <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A92" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <pane ySplit="5" topLeftCell="A101" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C115" sqref="C115:I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75"/>
@@ -4513,17 +5458,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="21" customFormat="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
       <c r="J1" s="21" t="s">
         <v>1</v>
       </c>
@@ -4535,16 +5480,16 @@
       <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
       <c r="J2" s="2">
         <f>6.02214076*10^23</f>
         <v>6.0221407599999999E+23</v>
@@ -4554,16 +5499,16 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="3" customFormat="1">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -4575,20 +5520,20 @@
       <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="57"/>
-      <c r="L3" s="55" t="s">
+      <c r="I3" s="55"/>
+      <c r="L3" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="57" t="s">
+      <c r="M3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="57" t="s">
+      <c r="N3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="57" t="s">
+      <c r="O3" s="55" t="s">
         <v>8</v>
       </c>
       <c r="P3" s="6" t="s">
@@ -4600,17 +5545,17 @@
       <c r="R3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="57" t="s">
+      <c r="S3" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
     </row>
     <row r="4" spans="1:22" s="3" customFormat="1" ht="18">
-      <c r="A4" s="55"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
@@ -4626,10 +5571,10 @@
       <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
       <c r="P4" s="6" t="s">
         <v>15</v>
       </c>
@@ -4649,9 +5594,9 @@
       <c r="A5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
@@ -4667,10 +5612,10 @@
       <c r="I5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
       <c r="P5" s="10" t="s">
         <v>22</v>
       </c>
@@ -4694,7 +5639,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="16.5">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="60" t="s">
         <v>31</v>
       </c>
       <c r="B6" t="s">
@@ -4744,7 +5689,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="16.5">
-      <c r="A7" s="52"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="32" t="s">
         <v>37</v>
       </c>
@@ -4789,7 +5734,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="16.5">
-      <c r="A8" s="52"/>
+      <c r="A8" s="61"/>
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -4834,32 +5779,31 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="16.5">
-      <c r="A9" s="52"/>
+      <c r="A9" s="61"/>
       <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9">
         <v>1961</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9">
         <v>4.2</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>13.392555932965443</v>
       </c>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68">
+      <c r="H9">
         <v>4.4640000000000004</v>
       </c>
-      <c r="I9" s="68">
+      <c r="I9">
         <f t="shared" si="1"/>
         <v>88.95544934400003</v>
       </c>
-      <c r="J9" s="68" t="s">
+      <c r="J9" t="s">
         <v>42</v>
       </c>
       <c r="N9">
@@ -4879,10 +5823,10 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="16.5">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="63" t="s">
         <v>44</v>
       </c>
       <c r="C10">
@@ -4925,8 +5869,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="16.5">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="63"/>
       <c r="C11">
         <v>1962</v>
       </c>
@@ -4967,8 +5911,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="16.5">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="63"/>
       <c r="C12">
         <v>1962</v>
       </c>
@@ -5423,20 +6367,20 @@
       </c>
     </row>
     <row r="32" spans="3:17">
-      <c r="C32">
+      <c r="C32" s="49">
         <v>1967</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="49">
         <v>21</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="49">
         <f t="shared" si="2"/>
         <v>14.201055594651654</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="49">
         <v>1.421</v>
       </c>
     </row>
@@ -5495,7 +6439,7 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="62" t="s">
         <v>51</v>
       </c>
       <c r="B36" s="32" t="s">
@@ -5523,7 +6467,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="53"/>
+      <c r="A37" s="62"/>
       <c r="C37">
         <v>1965</v>
       </c>
@@ -6780,23 +7724,24 @@
       </c>
     </row>
     <row r="115" spans="3:9">
-      <c r="C115">
+      <c r="C115" s="49">
         <v>1966</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="49">
         <v>3</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="49">
         <f t="shared" si="3"/>
         <v>13.231201582865136</v>
       </c>
-      <c r="H115">
+      <c r="G115" s="49"/>
+      <c r="H115" s="49">
         <v>4.4459999999999997</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="49">
         <f t="shared" si="6"/>
         <v>87.883708535999986</v>
       </c>
@@ -6826,6 +7771,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S4:U4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="B2:I2"/>
@@ -6833,16 +7788,6 @@
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="L3:L5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1" xr:uid="{1AFC1FEE-3BD5-4DD7-A4AA-FB70EA2FF03B}"/>
@@ -6862,9 +7807,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34482523-6132-7E48-BEBF-BE687D0AD34C}">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A56" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H64" sqref="H64"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75"/>
@@ -6878,70 +7823,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="57" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="55"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
@@ -6957,18 +7902,18 @@
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" s="11" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
+      <c r="A6" s="64"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9">
@@ -6991,6 +7936,10 @@
       </c>
       <c r="G7" s="29">
         <v>1.6759999999999999</v>
+      </c>
+      <c r="I7">
+        <f>LOG(F7,10)</f>
+        <v>-4.7757259857057415</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -7012,6 +7961,10 @@
       <c r="G8" s="26">
         <v>2.5550000000000002</v>
       </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I71" si="1">LOG(F8,10)</f>
+        <v>-4.5926090955292675</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="18"/>
@@ -7032,6 +7985,10 @@
       <c r="G9" s="29">
         <v>4.4550000000000001</v>
       </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>-4.3511522916271055</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="18"/>
@@ -7052,6 +8009,10 @@
       <c r="G10" s="26">
         <v>8.1769999999999996</v>
       </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>-4.087406002247894</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="18"/>
@@ -7072,6 +8033,10 @@
       <c r="G11" s="29">
         <v>13.25</v>
       </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>-3.8777841217271729</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="18"/>
@@ -7092,6 +8057,10 @@
       <c r="G12" s="26">
         <v>19.72</v>
       </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>-3.7050930893948077</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="18"/>
@@ -7112,6 +8081,10 @@
       <c r="G13" s="29">
         <v>13.23</v>
       </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>-3.8784401558124988</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="18"/>
@@ -7132,6 +8105,10 @@
       <c r="G14" s="26">
         <v>19.52</v>
       </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>-3.7095201866693261</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="18"/>
@@ -7152,6 +8129,10 @@
       <c r="G15" s="29">
         <v>19.72</v>
       </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>-3.7050930893948077</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="18"/>
@@ -7172,8 +8153,12 @@
       <c r="G16" s="26">
         <v>0.43240000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>-5.3641143147187265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="18"/>
       <c r="B17" s="24"/>
       <c r="C17">
@@ -7192,8 +8177,12 @@
       <c r="G17" s="29">
         <v>0.77310000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>-5.1117643267294319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="18"/>
       <c r="B18" s="24"/>
       <c r="C18">
@@ -7212,8 +8201,12 @@
       <c r="G18" s="26">
         <v>1.2789999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>-4.8931294555213452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="18"/>
       <c r="B19" s="24"/>
       <c r="C19">
@@ -7232,8 +8225,12 @@
       <c r="G19" s="29">
         <v>1.6080000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>-4.7937139555875667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="18"/>
       <c r="B20" s="32"/>
       <c r="C20">
@@ -7252,8 +8249,12 @@
       <c r="G20" s="26">
         <v>2.9860000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>-4.5249101966109926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="18"/>
       <c r="B21" s="33"/>
       <c r="C21">
@@ -7262,18 +8263,23 @@
       <c r="D21" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="70">
         <v>7.9997999999999996</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="53">
         <f t="shared" si="0"/>
         <v>1.9050000000000002E-4</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="70">
         <v>19.05</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="49"/>
+      <c r="I21" s="49">
+        <f t="shared" si="1"/>
+        <v>-3.7201050199883618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="18"/>
       <c r="B22" s="33"/>
       <c r="C22">
@@ -7282,18 +8288,23 @@
       <c r="D22" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="70">
         <v>9.9999000000000002</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="53">
         <f t="shared" si="0"/>
         <v>3.4250000000000003E-4</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="70">
         <v>34.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="49"/>
+      <c r="I22" s="49">
+        <f t="shared" si="1"/>
+        <v>-3.4653394241715554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="18"/>
       <c r="B23" s="33"/>
       <c r="C23">
@@ -7302,18 +8313,23 @@
       <c r="D23" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="70">
         <v>10.9999</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="53">
         <f t="shared" si="0"/>
         <v>4.2810000000000005E-4</v>
       </c>
-      <c r="G23" s="29">
+      <c r="G23" s="70">
         <v>42.81</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="49"/>
+      <c r="I23" s="49">
+        <f t="shared" si="1"/>
+        <v>-3.3684547721656903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="18"/>
       <c r="B24" s="33"/>
       <c r="C24">
@@ -7322,18 +8338,23 @@
       <c r="D24" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="29">
+      <c r="E24" s="70">
         <v>11.9999</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="53">
         <f t="shared" si="0"/>
         <v>5.1940000000000005E-4</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="70">
         <v>51.94</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="49"/>
+      <c r="I24" s="49">
+        <f t="shared" si="1"/>
+        <v>-3.2844980547067157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="18"/>
       <c r="B25" s="33"/>
       <c r="C25">
@@ -7342,18 +8363,23 @@
       <c r="D25" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E25" s="70">
         <v>13</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="53">
         <f t="shared" si="0"/>
         <v>6.1180000000000002E-4</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="70">
         <v>61.18</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="49"/>
+      <c r="I25" s="49">
+        <f t="shared" si="1"/>
+        <v>-3.2133905273513399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="18"/>
       <c r="B26" s="33"/>
       <c r="C26">
@@ -7362,18 +8388,23 @@
       <c r="D26" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="70">
         <v>14</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="53">
         <f t="shared" si="0"/>
         <v>7.0500000000000001E-4</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="70">
         <v>70.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="49"/>
+      <c r="I26" s="49">
+        <f t="shared" si="1"/>
+        <v>-3.1518108830086011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="18"/>
       <c r="B27" s="33"/>
       <c r="C27">
@@ -7382,18 +8413,23 @@
       <c r="D27" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="70">
         <v>13</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="53">
         <f t="shared" si="0"/>
         <v>6.1160000000000001E-4</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="70">
         <v>61.16</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="49"/>
+      <c r="I27" s="49">
+        <f t="shared" si="1"/>
+        <v>-3.2135325232597172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="18"/>
       <c r="B28" s="33"/>
       <c r="C28">
@@ -7402,18 +8438,23 @@
       <c r="D28" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="70">
         <v>11.9999</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="53">
         <f t="shared" si="0"/>
         <v>5.1869999999999998E-4</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="70">
         <v>51.87</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="49"/>
+      <c r="I28" s="49">
+        <f t="shared" si="1"/>
+        <v>-3.2850837520064147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="18"/>
       <c r="B29" s="33"/>
       <c r="C29">
@@ -7422,18 +8463,23 @@
       <c r="D29" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="70">
         <v>4.5</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="53">
         <f t="shared" si="0"/>
         <v>3.0200000000000002E-5</v>
       </c>
-      <c r="G29" s="29">
+      <c r="G29" s="70">
         <v>3.02</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="49"/>
+      <c r="I29" s="49">
+        <f t="shared" si="1"/>
+        <v>-4.519993057042849</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="18"/>
       <c r="B30" s="33"/>
       <c r="C30">
@@ -7442,18 +8488,23 @@
       <c r="D30" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="70">
         <v>5</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="53">
         <f t="shared" si="0"/>
         <v>4.3239999999999999E-5</v>
       </c>
-      <c r="G30" s="29">
+      <c r="G30" s="70">
         <v>4.3239999999999998</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="49"/>
+      <c r="I30" s="49">
+        <f t="shared" si="1"/>
+        <v>-4.3641143147187273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="18"/>
       <c r="B31" s="33"/>
       <c r="C31">
@@ -7462,18 +8513,23 @@
       <c r="D31" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="70">
         <v>5.5</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F31" s="53">
         <f t="shared" si="0"/>
         <v>5.9760000000000004E-5</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="70">
         <v>5.976</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="49"/>
+      <c r="I31" s="49">
+        <f t="shared" si="1"/>
+        <v>-4.2235894111926573</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="18"/>
       <c r="B32" s="33"/>
       <c r="C32">
@@ -7482,18 +8538,23 @@
       <c r="D32" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="70">
         <v>6.0000999999999998</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="53">
         <f t="shared" si="0"/>
         <v>7.9710000000000008E-5</v>
       </c>
-      <c r="G32" s="29">
+      <c r="G32" s="70">
         <v>7.9710000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="49"/>
+      <c r="I32" s="49">
+        <f t="shared" si="1"/>
+        <v>-4.0984871908700597</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="18"/>
       <c r="B33" s="33"/>
       <c r="C33">
@@ -7502,18 +8563,23 @@
       <c r="D33" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="70">
         <v>6.5</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F33" s="53">
         <f t="shared" si="0"/>
         <v>1.0280000000000001E-4</v>
       </c>
-      <c r="G33" s="29">
+      <c r="G33" s="70">
         <v>10.28</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="49"/>
+      <c r="I33" s="49">
+        <f t="shared" si="1"/>
+        <v>-3.9880068853407424</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="18"/>
       <c r="B34" s="33"/>
       <c r="C34">
@@ -7522,18 +8588,23 @@
       <c r="D34" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="70">
         <v>7.0049999999999999</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="53">
         <f t="shared" si="0"/>
         <v>1.2980000000000001E-4</v>
       </c>
-      <c r="G34" s="29">
+      <c r="G34" s="70">
         <v>12.98</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="49"/>
+      <c r="I34" s="49">
+        <f t="shared" si="1"/>
+        <v>-3.8867253075356487</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="18"/>
       <c r="B35" s="33"/>
       <c r="C35">
@@ -7542,18 +8613,23 @@
       <c r="D35" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="70">
         <v>7.5049999999999999</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F35" s="53">
         <f t="shared" si="0"/>
         <v>1.594E-4</v>
       </c>
-      <c r="G35" s="29">
+      <c r="G35" s="70">
         <v>15.94</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="49"/>
+      <c r="I35" s="49">
+        <f t="shared" si="1"/>
+        <v>-3.797511682939906</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="18"/>
       <c r="B36" s="33"/>
       <c r="C36">
@@ -7562,18 +8638,23 @@
       <c r="D36" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="70">
         <v>8</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="53">
         <f t="shared" si="0"/>
         <v>1.9140000000000002E-4</v>
       </c>
-      <c r="G36" s="29">
+      <c r="G36" s="70">
         <v>19.14</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="49"/>
+      <c r="I36" s="49">
+        <f t="shared" si="1"/>
+        <v>-3.7180580665591751</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="18"/>
       <c r="B37" s="19"/>
       <c r="C37" s="18">
@@ -7589,8 +8670,12 @@
         <v>1.8E-5</v>
       </c>
       <c r="G37" s="18"/>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>-4.7447274948966935</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="18"/>
       <c r="B38" s="19"/>
       <c r="C38" s="18">
@@ -7606,8 +8691,12 @@
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="G38" s="18"/>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>-4.2218487496163561</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="18"/>
       <c r="B39" s="19"/>
       <c r="C39" s="18">
@@ -7623,8 +8712,12 @@
         <v>1.3799999999999999E-4</v>
       </c>
       <c r="G39" s="18"/>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>-3.8601209135987631</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="18"/>
       <c r="B40" s="19"/>
       <c r="C40" s="18">
@@ -7640,8 +8733,12 @@
         <v>2.4600000000000002E-4</v>
       </c>
       <c r="G40" s="18"/>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>-3.6090648928966207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="18"/>
       <c r="B41" s="19"/>
       <c r="C41" s="18">
@@ -7657,8 +8754,12 @@
         <v>3.9300000000000001E-4</v>
       </c>
       <c r="G41" s="18"/>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>-3.405607449624573</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="18"/>
       <c r="B42" s="19"/>
       <c r="C42" s="18">
@@ -7674,8 +8775,12 @@
         <v>5.7300000000000005E-4</v>
       </c>
       <c r="G42" s="18"/>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>-3.2418453780326097</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="18"/>
       <c r="B43" s="19"/>
       <c r="C43" s="18">
@@ -7691,8 +8796,12 @@
         <v>7.8600000000000002E-4</v>
       </c>
       <c r="G43" s="18"/>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>-3.1045774539605921</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="18"/>
       <c r="B44" s="19"/>
       <c r="C44" s="18">
@@ -7708,8 +8817,12 @@
         <v>1.0200000000000001E-3</v>
       </c>
       <c r="G44" s="18"/>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>-2.991399828238082</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="18"/>
       <c r="B45" s="19"/>
       <c r="C45" s="18">
@@ -7725,8 +8838,12 @@
         <v>1.2700000000000001E-3</v>
       </c>
       <c r="G45" s="18"/>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>-2.8961962790440432</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="18"/>
       <c r="B46" s="19"/>
       <c r="C46" s="18">
@@ -7742,8 +8859,12 @@
         <v>1.5399999999999999E-3</v>
       </c>
       <c r="G46" s="18"/>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>-2.8124792791635365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18">
@@ -7759,8 +8880,12 @@
         <v>1.82E-3</v>
       </c>
       <c r="G47" s="18"/>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>-2.7399286120149253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18">
@@ -7776,8 +8901,12 @@
         <v>2.1099999999999999E-3</v>
       </c>
       <c r="G48" s="18"/>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>-2.6757175447023069</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18">
@@ -7793,8 +8922,12 @@
         <v>2.4099999999999998E-3</v>
       </c>
       <c r="G49" s="18"/>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>-2.6179829574251317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18">
@@ -7810,8 +8943,12 @@
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="G50" s="18"/>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>-2.5686362358410122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18">
@@ -7827,8 +8964,12 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G51" s="18"/>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>-2.5228787452803374</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18">
@@ -7844,8 +8985,12 @@
         <v>3.31E-3</v>
       </c>
       <c r="G52" s="18"/>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>-2.4801720062242811</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18">
@@ -7861,8 +9006,12 @@
         <v>3.65E-3</v>
       </c>
       <c r="G53" s="18"/>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>-2.4377071355435254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18">
@@ -7878,8 +9027,12 @@
         <v>4.0099999999999997E-3</v>
       </c>
       <c r="G54" s="18"/>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>-2.3968556273798174</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18">
@@ -7895,8 +9048,12 @@
         <v>4.3899999999999998E-3</v>
       </c>
       <c r="G55" s="18"/>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>-2.3575354797578782</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18">
@@ -7912,8 +9069,12 @@
         <v>4.7600000000000003E-3</v>
       </c>
       <c r="G56" s="18"/>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>-2.3223930472795065</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18">
@@ -7929,208 +9090,252 @@
         <v>5.1500000000000001E-3</v>
       </c>
       <c r="G57" s="18"/>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>-2.2881927709588088</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
-      <c r="C58" s="70">
+      <c r="C58" s="18">
         <v>1975</v>
       </c>
-      <c r="D58" s="70" t="s">
+      <c r="D58" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E58" s="70">
+      <c r="E58" s="18">
         <v>0.5</v>
       </c>
-      <c r="F58" s="70">
+      <c r="F58" s="18">
         <f>G58*10^-6</f>
         <v>1.0050000000000001E-7</v>
       </c>
-      <c r="G58" s="70">
+      <c r="G58" s="18">
         <v>0.10050000000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>-6.9978339382434918</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
-      <c r="C59" s="70">
+      <c r="C59" s="18">
         <v>1975</v>
       </c>
-      <c r="D59" s="70" t="s">
+      <c r="D59" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E59" s="70">
+      <c r="E59" s="18">
         <v>1</v>
       </c>
-      <c r="F59" s="70">
-        <f t="shared" ref="F59:F81" si="1">G59*10^-6</f>
+      <c r="F59" s="18">
+        <f t="shared" ref="F59:F81" si="2">G59*10^-6</f>
         <v>8.0689999999999995E-7</v>
       </c>
-      <c r="G59" s="70">
+      <c r="G59" s="18">
         <v>0.80689999999999995</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>-6.0931802845334539</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
-      <c r="C60" s="70">
+      <c r="C60" s="18">
         <v>1975</v>
       </c>
-      <c r="D60" s="70" t="s">
+      <c r="D60" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E60" s="70">
+      <c r="E60" s="18">
         <v>1.5</v>
       </c>
-      <c r="F60" s="70">
+      <c r="F60" s="18">
+        <f t="shared" si="2"/>
+        <v>2.734E-6</v>
+      </c>
+      <c r="G60" s="18">
+        <v>2.734</v>
+      </c>
+      <c r="I60">
         <f t="shared" si="1"/>
-        <v>2.734E-6</v>
-      </c>
-      <c r="G60" s="70">
-        <v>2.734</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-5.5632014897681961</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
-      <c r="C61" s="70">
+      <c r="C61" s="18">
         <v>1975</v>
       </c>
-      <c r="D61" s="70" t="s">
+      <c r="D61" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E61" s="70">
+      <c r="E61" s="18">
         <v>2</v>
       </c>
-      <c r="F61" s="70">
+      <c r="F61" s="18">
+        <f t="shared" si="2"/>
+        <v>6.5369999999999994E-6</v>
+      </c>
+      <c r="G61" s="18">
+        <v>6.5369999999999999</v>
+      </c>
+      <c r="I61">
         <f t="shared" si="1"/>
-        <v>6.5369999999999994E-6</v>
-      </c>
-      <c r="G61" s="70">
-        <v>6.5369999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-5.1846215150340811</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
-      <c r="C62" s="70">
+      <c r="C62" s="18">
         <v>1975</v>
       </c>
-      <c r="D62" s="70" t="s">
+      <c r="D62" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E62" s="70">
+      <c r="E62" s="18">
         <v>2.5</v>
       </c>
-      <c r="F62" s="70">
+      <c r="F62" s="18">
+        <f t="shared" si="2"/>
+        <v>1.3019999999999999E-5</v>
+      </c>
+      <c r="G62" s="18">
+        <v>13.02</v>
+      </c>
+      <c r="I62">
         <f t="shared" si="1"/>
-        <v>1.3019999999999999E-5</v>
-      </c>
-      <c r="G62" s="70">
-        <v>13.02</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-4.8853890157678261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
-      <c r="C63" s="70">
+      <c r="C63" s="18">
         <v>1975</v>
       </c>
-      <c r="D63" s="70" t="s">
+      <c r="D63" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E63" s="70">
+      <c r="E63" s="18">
         <v>3</v>
       </c>
-      <c r="F63" s="70">
+      <c r="F63" s="18">
+        <f t="shared" si="2"/>
+        <v>2.319E-5</v>
+      </c>
+      <c r="G63" s="18">
+        <v>23.19</v>
+      </c>
+      <c r="I63">
         <f t="shared" si="1"/>
-        <v>2.319E-5</v>
-      </c>
-      <c r="G63" s="70">
-        <v>23.19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-4.6346992513620116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
-      <c r="C64" s="70">
+      <c r="C64" s="18">
         <v>1975</v>
       </c>
-      <c r="D64" s="70" t="s">
+      <c r="D64" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E64" s="70">
+      <c r="E64" s="18">
         <v>3.5</v>
       </c>
-      <c r="F64" s="70">
+      <c r="F64" s="18">
+        <f t="shared" si="2"/>
+        <v>3.8349999999999997E-5</v>
+      </c>
+      <c r="G64" s="18">
+        <v>38.35</v>
+      </c>
+      <c r="I64">
         <f t="shared" si="1"/>
-        <v>3.8349999999999997E-5</v>
-      </c>
-      <c r="G64" s="70">
-        <v>38.35</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-4.4162346317149996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
-      <c r="C65" s="70">
+      <c r="C65" s="18">
         <v>1975</v>
       </c>
-      <c r="D65" s="70" t="s">
+      <c r="D65" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E65" s="70">
+      <c r="E65" s="18">
         <v>4</v>
       </c>
-      <c r="F65" s="70">
+      <c r="F65" s="18">
+        <f t="shared" si="2"/>
+        <v>5.9969999999999997E-5</v>
+      </c>
+      <c r="G65" s="18">
+        <v>59.97</v>
+      </c>
+      <c r="I65">
         <f t="shared" si="1"/>
-        <v>5.9969999999999997E-5</v>
-      </c>
-      <c r="G65" s="70">
-        <v>59.97</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-4.2220659511622207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
-      <c r="C66" s="70">
+      <c r="C66" s="18">
         <v>1975</v>
       </c>
-      <c r="D66" s="70" t="s">
+      <c r="D66" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E66" s="70">
+      <c r="E66" s="18">
         <v>4.5</v>
       </c>
-      <c r="F66" s="70">
+      <c r="F66" s="18">
+        <f t="shared" si="2"/>
+        <v>8.9549999999999995E-5</v>
+      </c>
+      <c r="G66" s="18">
+        <v>89.55</v>
+      </c>
+      <c r="I66">
         <f t="shared" si="1"/>
-        <v>8.9549999999999995E-5</v>
-      </c>
-      <c r="G66" s="70">
-        <v>89.55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-4.0479344098149497</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
-      <c r="C67" s="70">
+      <c r="C67" s="18">
         <v>1975</v>
       </c>
-      <c r="D67" s="70" t="s">
+      <c r="D67" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E67" s="70">
+      <c r="E67" s="18">
         <v>5</v>
       </c>
-      <c r="F67" s="70">
+      <c r="F67" s="18">
+        <f t="shared" si="2"/>
+        <v>1.283E-4</v>
+      </c>
+      <c r="G67" s="18">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="I67">
         <f t="shared" si="1"/>
-        <v>1.283E-4</v>
-      </c>
-      <c r="G67" s="70">
-        <v>128.30000000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-3.8917733436250712</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="69">
@@ -8143,14 +9348,18 @@
         <v>5.5</v>
       </c>
       <c r="F68" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.773E-4</v>
       </c>
       <c r="G68" s="69">
         <v>177.3</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="I68">
+        <f t="shared" si="1"/>
+        <v>-3.7512912643990814</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="69">
@@ -8163,14 +9372,18 @@
         <v>6</v>
       </c>
       <c r="F69" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.364E-4</v>
       </c>
       <c r="G69" s="69">
         <v>236.4</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="I69">
+        <f t="shared" si="1"/>
+        <v>-3.626352527790782</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="69">
@@ -8183,14 +9396,18 @@
         <v>6.5</v>
       </c>
       <c r="F70" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0539999999999994E-4</v>
       </c>
       <c r="G70" s="69">
         <v>305.39999999999998</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>-3.515130967279597</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="69">
@@ -8203,14 +9420,18 @@
         <v>7</v>
       </c>
       <c r="F71" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.838E-4</v>
       </c>
       <c r="G71" s="69">
         <v>383.8</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="I71">
+        <f t="shared" si="1"/>
+        <v>-3.4158950296005468</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="69">
@@ -8223,14 +9444,18 @@
         <v>7.5</v>
       </c>
       <c r="F72" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.7110000000000001E-4</v>
       </c>
       <c r="G72" s="69">
         <v>471.1</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="I72">
+        <f t="shared" ref="I72:I102" si="3">LOG(F72,10)</f>
+        <v>-3.3268868957617657</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="69">
@@ -8243,14 +9468,18 @@
         <v>8</v>
       </c>
       <c r="F73" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6700000000000001E-4</v>
       </c>
       <c r="G73" s="69">
         <v>567</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="I73">
+        <f t="shared" si="3"/>
+        <v>-3.2464169411070931</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="C74" s="69">
@@ -8263,14 +9492,18 @@
         <v>8.5</v>
       </c>
       <c r="F74" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7099999999999994E-4</v>
       </c>
       <c r="G74" s="69">
         <v>671</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="I74">
+        <f t="shared" si="3"/>
+        <v>-3.1732774798310075</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
       <c r="C75" s="69">
@@ -8283,14 +9516,18 @@
         <v>9</v>
       </c>
       <c r="F75" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.8239999999999994E-4</v>
       </c>
       <c r="G75" s="69">
         <v>782.4</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="I75">
+        <f t="shared" si="3"/>
+        <v>-3.1065711582204547</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
       <c r="C76" s="69">
@@ -8303,14 +9540,18 @@
         <v>9.5</v>
       </c>
       <c r="F76" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.992999999999999E-4</v>
       </c>
       <c r="G76" s="69">
         <v>899.3</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="I76">
+        <f t="shared" si="3"/>
+        <v>-3.0460954065865398</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
       <c r="C77" s="69">
@@ -8323,14 +9564,18 @@
         <v>10</v>
       </c>
       <c r="F77" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0199999999999999E-3</v>
       </c>
       <c r="G77" s="69">
         <v>1020</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="I77">
+        <f t="shared" si="3"/>
+        <v>-2.991399828238082</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="18"/>
       <c r="B78" s="18"/>
       <c r="C78" s="69">
@@ -8343,14 +9588,18 @@
         <v>11</v>
       </c>
       <c r="F78" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2689999999999999E-3</v>
       </c>
       <c r="G78" s="69">
         <v>1269</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="I78">
+        <f t="shared" si="3"/>
+        <v>-2.8965383779052947</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
       <c r="C79" s="69">
@@ -8363,14 +9612,18 @@
         <v>12</v>
       </c>
       <c r="F79" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.542E-3</v>
       </c>
       <c r="G79" s="69">
         <v>1542</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="I79">
+        <f t="shared" si="3"/>
+        <v>-2.8119156262850615</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
       <c r="C80" s="69">
@@ -8383,14 +9636,18 @@
         <v>13</v>
       </c>
       <c r="F80" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8169999999999998E-3</v>
       </c>
       <c r="G80" s="69">
         <v>1817</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="I80">
+        <f t="shared" si="3"/>
+        <v>-2.7406450726919656</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
       <c r="C81" s="69">
@@ -8403,14 +9660,18 @@
         <v>14</v>
       </c>
       <c r="F81" s="69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1080000000000001E-3</v>
       </c>
       <c r="G81" s="69">
         <v>2108</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="I81">
+        <f t="shared" si="3"/>
+        <v>-2.6761293934594907</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
       <c r="C82" s="18">
@@ -8429,8 +9690,12 @@
       <c r="G82" s="18">
         <v>1.7999999999999999E-2</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="I82">
+        <f t="shared" si="3"/>
+        <v>-5.7447274948966935</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
       <c r="C83" s="18">
@@ -8443,14 +9708,18 @@
         <v>4</v>
       </c>
       <c r="F83" s="18">
-        <f t="shared" ref="F83:F102" si="2">G83*10^-4</f>
+        <f t="shared" ref="F83:F102" si="4">G83*10^-4</f>
         <v>6.0000000000000002E-5</v>
       </c>
       <c r="G83" s="18">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="I83">
+        <f t="shared" si="3"/>
+        <v>-4.2218487496163561</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="18"/>
       <c r="B84" s="18"/>
       <c r="C84" s="18">
@@ -8463,14 +9732,18 @@
         <v>5</v>
       </c>
       <c r="F84" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3799999999999999E-4</v>
       </c>
       <c r="G84" s="18">
         <v>1.38</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="I84">
+        <f t="shared" si="3"/>
+        <v>-3.8601209135987631</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="18"/>
       <c r="B85" s="18"/>
       <c r="C85" s="18">
@@ -8483,14 +9756,18 @@
         <v>6</v>
       </c>
       <c r="F85" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.4600000000000002E-4</v>
       </c>
       <c r="G85" s="18">
         <v>2.46</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="I85">
+        <f t="shared" si="3"/>
+        <v>-3.6090648928966207</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="18"/>
       <c r="B86" s="18"/>
       <c r="C86" s="18">
@@ -8503,14 +9780,18 @@
         <v>7</v>
       </c>
       <c r="F86" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.9300000000000001E-4</v>
       </c>
       <c r="G86" s="18">
         <v>3.93</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="I86">
+        <f t="shared" si="3"/>
+        <v>-3.405607449624573</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="18"/>
       <c r="B87" s="18"/>
       <c r="C87" s="18">
@@ -8523,14 +9804,18 @@
         <v>8</v>
       </c>
       <c r="F87" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.7300000000000005E-4</v>
       </c>
       <c r="G87" s="18">
         <v>5.73</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="I87">
+        <f t="shared" si="3"/>
+        <v>-3.2418453780326097</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="18"/>
       <c r="B88" s="18"/>
       <c r="C88" s="18">
@@ -8543,14 +9828,18 @@
         <v>9</v>
       </c>
       <c r="F88" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.8600000000000002E-4</v>
       </c>
       <c r="G88" s="18">
         <v>7.86</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="I88">
+        <f t="shared" si="3"/>
+        <v>-3.1045774539605921</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="18"/>
       <c r="B89" s="18"/>
       <c r="C89" s="18">
@@ -8563,14 +9852,18 @@
         <v>10</v>
       </c>
       <c r="F89" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0170000000000001E-3</v>
       </c>
       <c r="G89" s="18">
         <v>10.17</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="I89">
+        <f t="shared" si="3"/>
+        <v>-2.9926790470772549</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="18"/>
       <c r="B90" s="18"/>
       <c r="C90" s="18">
@@ -8583,14 +9876,18 @@
         <v>11</v>
       </c>
       <c r="F90" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.2689999999999999E-3</v>
       </c>
       <c r="G90" s="18">
         <v>12.69</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="I90">
+        <f t="shared" si="3"/>
+        <v>-2.8965383779052947</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="18"/>
       <c r="B91" s="18"/>
       <c r="C91" s="18">
@@ -8603,14 +9900,18 @@
         <v>12</v>
       </c>
       <c r="F91" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.5390000000000002E-3</v>
       </c>
       <c r="G91" s="18">
         <v>15.39</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="I91">
+        <f t="shared" si="3"/>
+        <v>-2.8127613801685212</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="18"/>
       <c r="B92" s="18"/>
       <c r="C92" s="18">
@@ -8623,14 +9924,18 @@
         <v>13</v>
       </c>
       <c r="F92" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.818E-3</v>
       </c>
       <c r="G92" s="18">
         <v>18.18</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="I92">
+        <f t="shared" si="3"/>
+        <v>-2.7404061211140514</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="18"/>
       <c r="B93" s="18"/>
       <c r="C93" s="18">
@@ -8643,14 +9948,18 @@
         <v>14</v>
       </c>
       <c r="F93" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1090000000000002E-3</v>
       </c>
       <c r="G93" s="18">
         <v>21.09</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="I93">
+        <f t="shared" si="3"/>
+        <v>-2.6759234202605136</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="18"/>
       <c r="B94" s="18"/>
       <c r="C94" s="18">
@@ -8663,14 +9972,18 @@
         <v>15</v>
       </c>
       <c r="F94" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.4090000000000001E-3</v>
       </c>
       <c r="G94" s="18">
         <v>24.09</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="I94">
+        <f t="shared" si="3"/>
+        <v>-2.6181632000016566</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="18"/>
       <c r="B95" s="18"/>
       <c r="C95" s="18">
@@ -8683,14 +9996,18 @@
         <v>16</v>
       </c>
       <c r="F95" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="G95" s="18">
         <v>27</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="I95">
+        <f t="shared" si="3"/>
+        <v>-2.5686362358410122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="18"/>
       <c r="B96" s="18"/>
       <c r="C96" s="18">
@@ -8703,14 +10020,18 @@
         <v>17</v>
       </c>
       <c r="F96" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.9970000000000001E-3</v>
       </c>
       <c r="G96" s="18">
         <v>29.97</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="I96">
+        <f t="shared" si="3"/>
+        <v>-2.5233132570543551</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="18"/>
       <c r="B97" s="18"/>
       <c r="C97" s="18">
@@ -8723,14 +10044,18 @@
         <v>18</v>
       </c>
       <c r="F97" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.3119999999999998E-3</v>
       </c>
       <c r="G97" s="18">
         <v>33.119999999999997</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="I97">
+        <f t="shared" si="3"/>
+        <v>-2.4799096718871572</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="18"/>
       <c r="B98" s="18"/>
       <c r="C98" s="18">
@@ -8743,14 +10068,18 @@
         <v>19</v>
       </c>
       <c r="F98" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.6540000000000001E-3</v>
       </c>
       <c r="G98" s="18">
         <v>36.54</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="I98">
+        <f t="shared" si="3"/>
+        <v>-2.4372314569834805</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="18"/>
       <c r="B99" s="18"/>
       <c r="C99" s="18">
@@ -8763,14 +10092,18 @@
         <v>20</v>
       </c>
       <c r="F99" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.0109999999999998E-3</v>
       </c>
       <c r="G99" s="18">
         <v>40.11</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="I99">
+        <f t="shared" si="3"/>
+        <v>-2.3967473380183528</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="18"/>
       <c r="B100" s="18"/>
       <c r="C100" s="18">
@@ -8783,14 +10116,18 @@
         <v>21</v>
       </c>
       <c r="F100" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.3860000000000001E-3</v>
       </c>
       <c r="G100" s="18">
         <v>43.86</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="I100">
+        <f t="shared" si="3"/>
+        <v>-2.3579313726584958</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="18"/>
       <c r="B101" s="18"/>
       <c r="C101" s="18">
@@ -8803,14 +10140,18 @@
         <v>22</v>
       </c>
       <c r="F101" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.764E-3</v>
       </c>
       <c r="G101" s="18">
         <v>47.64</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="I101">
+        <f t="shared" si="3"/>
+        <v>-2.3220282471892597</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="18"/>
       <c r="B102" s="18"/>
       <c r="C102" s="18">
@@ -8823,11 +10164,15 @@
         <v>23</v>
       </c>
       <c r="F102" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.1540000000000006E-3</v>
       </c>
       <c r="G102" s="18">
         <v>51.54</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="3"/>
+        <v>-2.2878555857851137</v>
       </c>
     </row>
   </sheetData>
@@ -8856,9 +10201,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855DA3B9-8C38-4A4E-B8C1-649E45A85AE6}">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75"/>
@@ -8880,113 +10225,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="22" customFormat="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
     </row>
     <row r="2" spans="1:18" s="15" customFormat="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="57" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="57"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="57" t="s">
+      <c r="M3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="57" t="s">
+      <c r="N3" s="55" t="s">
         <v>8</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="57" t="s">
+      <c r="P3" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="57" t="s">
+      <c r="Q3" s="55" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
       <c r="O4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
     </row>
     <row r="5" spans="1:18" s="17" customFormat="1" ht="19.5" thickBot="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
@@ -9002,9 +10347,9 @@
       <c r="I5" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
       <c r="O5" s="10" t="s">
         <v>22</v>
       </c>
@@ -9020,16 +10365,16 @@
     </row>
     <row r="6" spans="1:18">
       <c r="B6" s="19"/>
-      <c r="C6" s="66">
+      <c r="C6" s="51">
         <v>1967</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="52">
         <v>4</v>
       </c>
-      <c r="F6" s="67">
+      <c r="F6" s="52">
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="M6">
@@ -9047,16 +10392,16 @@
     </row>
     <row r="7" spans="1:18">
       <c r="B7" s="19"/>
-      <c r="C7" s="66">
+      <c r="C7" s="51">
         <v>1967</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="52">
         <v>6</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="52">
         <v>9.1E-4</v>
       </c>
       <c r="M7">
@@ -9074,16 +10419,16 @@
     </row>
     <row r="8" spans="1:18">
       <c r="B8" s="19"/>
-      <c r="C8" s="66">
+      <c r="C8" s="51">
         <v>1967</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="52">
         <v>8</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="52">
         <v>9.2000000000000003E-4</v>
       </c>
       <c r="M8">
@@ -9101,16 +10446,16 @@
     </row>
     <row r="9" spans="1:18">
       <c r="B9" s="19"/>
-      <c r="C9" s="66">
+      <c r="C9" s="51">
         <v>1967</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="52">
         <v>10</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="52">
         <v>9.3999999999999997E-4</v>
       </c>
       <c r="M9">
@@ -9128,16 +10473,16 @@
     </row>
     <row r="10" spans="1:18">
       <c r="B10" s="19"/>
-      <c r="C10" s="66">
+      <c r="C10" s="51">
         <v>1967</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="52">
         <v>12</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="52">
         <v>9.6000000000000002E-4</v>
       </c>
       <c r="M10">
@@ -9155,16 +10500,16 @@
     </row>
     <row r="11" spans="1:18">
       <c r="B11" s="19"/>
-      <c r="C11" s="66">
+      <c r="C11" s="51">
         <v>1967</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="52">
         <v>14</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="52">
         <v>1E-3</v>
       </c>
       <c r="M11">
@@ -9182,16 +10527,16 @@
     </row>
     <row r="12" spans="1:18">
       <c r="B12" s="19"/>
-      <c r="C12" s="66">
+      <c r="C12" s="51">
         <v>1967</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="52">
         <v>16</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="52">
         <v>1.07E-3</v>
       </c>
       <c r="M12">
@@ -9209,16 +10554,16 @@
     </row>
     <row r="13" spans="1:18">
       <c r="B13" s="19"/>
-      <c r="C13" s="66">
+      <c r="C13" s="51">
         <v>1967</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E13" s="52">
         <v>18</v>
       </c>
-      <c r="F13" s="67">
+      <c r="F13" s="52">
         <v>1.24E-3</v>
       </c>
       <c r="M13">
@@ -9236,16 +10581,16 @@
     </row>
     <row r="14" spans="1:18">
       <c r="B14" s="19"/>
-      <c r="C14" s="66">
+      <c r="C14" s="49">
         <v>1967</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="67">
+      <c r="E14" s="50">
         <v>20</v>
       </c>
-      <c r="F14" s="67">
+      <c r="F14" s="50">
         <v>1.6199999999999999E-3</v>
       </c>
       <c r="M14">
@@ -9942,16 +11287,16 @@
       </c>
     </row>
     <row r="41" spans="3:16">
-      <c r="C41">
+      <c r="C41" s="49">
         <v>1972</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="23">
+      <c r="E41" s="50">
         <v>19.899999999999999</v>
       </c>
-      <c r="F41" s="23">
+      <c r="F41" s="50">
         <v>1.2099999999999999E-3</v>
       </c>
       <c r="M41">
@@ -9968,16 +11313,16 @@
       </c>
     </row>
     <row r="42" spans="3:16">
-      <c r="C42">
+      <c r="C42" s="49">
         <v>1990</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E42" s="50">
         <v>19.899999999999999</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F42" s="50">
         <v>1.23E-3</v>
       </c>
       <c r="M42">
@@ -9994,16 +11339,16 @@
       </c>
     </row>
     <row r="43" spans="3:16">
-      <c r="C43">
+      <c r="C43" s="49">
         <v>1990</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E43" s="50">
         <v>24.55</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F43" s="50">
         <v>1.31E-3</v>
       </c>
       <c r="M43">
@@ -10092,6 +11437,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10123,74 +11469,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="21" customFormat="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:18" s="14" customFormat="1">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:18" s="6" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="57" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
     </row>
     <row r="4" spans="1:18" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="57"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="6" t="s">
         <v>103</v>
       </c>
@@ -10203,17 +11549,17 @@
       <c r="K4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
     </row>
     <row r="5" spans="1:18" s="10" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
@@ -10226,9 +11572,9 @@
       <c r="J5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
@@ -10842,12 +12188,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A3:A5"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F3:H3"/>
@@ -10856,6 +12196,12 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -10866,9 +12212,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB183BD-6D7F-D049-90C4-D4B415FD13C0}">
   <dimension ref="A1:J289"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.875" defaultRowHeight="15.75"/>
@@ -10885,60 +12231,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="14"/>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="55"/>
-      <c r="B3" s="57" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="8"/>
       <c r="J3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="55"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
@@ -10950,10 +12296,10 @@
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
@@ -16290,60 +17636,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="21" customFormat="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:16" s="15" customFormat="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="57" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="8"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
     </row>
     <row r="4" spans="1:16" s="4" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
@@ -16357,14 +17703,14 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
     </row>
     <row r="5" spans="1:16" s="17" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
@@ -17565,63 +18911,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="21" customFormat="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:18" s="15" customFormat="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="57" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
@@ -17637,18 +18983,18 @@
       <c r="I4" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
     </row>
     <row r="5" spans="1:18" s="17" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
@@ -17664,9 +19010,9 @@
       <c r="I5" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
       <c r="O5" s="10"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="16"/>
@@ -17754,11 +19100,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="B2:I2"/>
@@ -17766,6 +19107,11 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -17776,7 +19122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E72F4D-3F4B-D946-96F8-0C48CECE6608}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
@@ -17800,39 +19146,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="21" customFormat="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:18" s="14" customFormat="1">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
     </row>
     <row r="3" spans="1:18" s="6" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A3" s="55"/>
-      <c r="B3" s="57" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="55" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -17841,30 +19187,30 @@
       <c r="F3" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="57" t="s">
+      <c r="M3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="57" t="s">
+      <c r="N3" s="55" t="s">
         <v>8</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="57" t="s">
+      <c r="P3" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="57" t="s">
+      <c r="Q3" s="55" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="55"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="58"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
@@ -17873,20 +19219,20 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
       <c r="O4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
     </row>
     <row r="5" spans="1:18" s="10" customFormat="1" ht="19.5" thickBot="1">
-      <c r="A5" s="56"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
@@ -17902,9 +19248,9 @@
       <c r="I5" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
       <c r="O5" s="10" t="s">
         <v>22</v>
       </c>
@@ -17975,17 +19321,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data/MASTER Neon Literature Review.xlsx
+++ b/data/MASTER Neon Literature Review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwa-my.sharepoint.com/personal/23059859_student_uwa_edu_au/Documents/UWA/05. Year 5/Semester 1/GENG5511 MPE Engineering Research Project/Project/Research_Project/GENG5511_Thesis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{C34D0A32-8F5A-B84F-9541-71DD14F7DB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9F20F8B-F28B-41CD-B9F6-A9F6507882C8}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{C34D0A32-8F5A-B84F-9541-71DD14F7DB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE357472-CF05-42A4-AA19-2BF42B645484}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{69D65117-2E76-C546-90A2-B362171284DD}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{69D65117-2E76-C546-90A2-B362171284DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell Volume " sheetId="1" r:id="rId1"/>
@@ -1286,7 +1286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1405,24 +1405,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1435,8 +1418,26 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1450,10 +1451,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5442,14 +5439,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F513A9-1C82-3E45-A361-2C7180831D5E}">
   <dimension ref="A1:V116"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A101" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C115" sqref="C115:I115"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.375" customWidth="1"/>
     <col min="6" max="6" width="17.125" customWidth="1"/>
     <col min="7" max="7" width="13.375" customWidth="1"/>
@@ -5458,17 +5456,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="21" customFormat="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
       <c r="J1" s="21" t="s">
         <v>1</v>
       </c>
@@ -5480,16 +5478,16 @@
       <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
       <c r="J2" s="2">
         <f>6.02214076*10^23</f>
         <v>6.0221407599999999E+23</v>
@@ -5499,16 +5497,16 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="3" customFormat="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="61" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -5520,20 +5518,20 @@
       <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="55" t="s">
+      <c r="H3" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="L3" s="58" t="s">
+      <c r="I3" s="61"/>
+      <c r="L3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="55" t="s">
+      <c r="O3" s="61" t="s">
         <v>8</v>
       </c>
       <c r="P3" s="6" t="s">
@@ -5545,17 +5543,17 @@
       <c r="R3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="55" t="s">
+      <c r="S3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
     </row>
     <row r="4" spans="1:22" s="3" customFormat="1" ht="18">
-      <c r="A4" s="58"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
@@ -5571,10 +5569,10 @@
       <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
       <c r="P4" s="6" t="s">
         <v>15</v>
       </c>
@@ -5584,19 +5582,19 @@
       <c r="R4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="59" t="s">
+      <c r="S4" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
     </row>
     <row r="5" spans="1:22" s="11" customFormat="1" ht="17.25" thickBot="1">
       <c r="A5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
@@ -5612,10 +5610,10 @@
       <c r="I5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="64"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62"/>
       <c r="P5" s="10" t="s">
         <v>22</v>
       </c>
@@ -5639,7 +5637,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="16.5">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="55" t="s">
         <v>31</v>
       </c>
       <c r="B6" t="s">
@@ -5689,7 +5687,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="16.5">
-      <c r="A7" s="61"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="32" t="s">
         <v>37</v>
       </c>
@@ -5734,7 +5732,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="16.5">
-      <c r="A8" s="61"/>
+      <c r="A8" s="56"/>
       <c r="B8" t="s">
         <v>39</v>
       </c>
@@ -5779,7 +5777,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="16.5">
-      <c r="A9" s="61"/>
+      <c r="A9" s="56"/>
       <c r="B9" t="s">
         <v>39</v>
       </c>
@@ -5823,10 +5821,10 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="16.5">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="58" t="s">
         <v>44</v>
       </c>
       <c r="C10">
@@ -5869,8 +5867,8 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="16.5">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="58"/>
       <c r="C11">
         <v>1962</v>
       </c>
@@ -5911,29 +5909,30 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="16.5">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63"/>
-      <c r="C12">
+      <c r="A12" s="57"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="49">
         <v>1962</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="49">
         <v>4.2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="49">
         <f t="shared" si="0"/>
         <v>13.302753667575924</v>
       </c>
-      <c r="H12">
+      <c r="G12" s="49"/>
+      <c r="H12" s="49">
         <v>4.4539999999999997</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="49">
         <f t="shared" si="1"/>
         <v>88.358968663999988</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="49" t="s">
         <v>42</v>
       </c>
       <c r="N12">
@@ -6439,22 +6438,22 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="57" t="s">
         <v>51</v>
       </c>
       <c r="B36" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="49">
         <v>1965</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="49">
         <v>4.25</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="49">
         <f>(I36*10^-30)*$J$2*(1*10^6)/4</f>
         <v>13.308309699511682</v>
       </c>
@@ -6467,7 +6466,7 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="62"/>
+      <c r="A37" s="57"/>
       <c r="C37">
         <v>1965</v>
       </c>
@@ -7771,16 +7770,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="S4:U4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="B2:I2"/>
@@ -7788,6 +7777,16 @@
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="L3:L5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1" xr:uid="{1AFC1FEE-3BD5-4DD7-A4AA-FB70EA2FF03B}"/>
@@ -7823,97 +7822,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="21" customFormat="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" s="2" customFormat="1">
       <c r="A2" s="5"/>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="55" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="61" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="58"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="63" t="s">
         <v>77</v>
       </c>
       <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" s="11" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A6" s="64"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9">
@@ -8263,14 +8262,14 @@
       <c r="D21" t="s">
         <v>61</v>
       </c>
-      <c r="E21" s="70">
+      <c r="E21" s="54">
         <v>7.9997999999999996</v>
       </c>
       <c r="F21" s="53">
         <f t="shared" si="0"/>
         <v>1.9050000000000002E-4</v>
       </c>
-      <c r="G21" s="70">
+      <c r="G21" s="54">
         <v>19.05</v>
       </c>
       <c r="H21" s="49"/>
@@ -8288,14 +8287,14 @@
       <c r="D22" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="70">
+      <c r="E22" s="54">
         <v>9.9999000000000002</v>
       </c>
       <c r="F22" s="53">
         <f t="shared" si="0"/>
         <v>3.4250000000000003E-4</v>
       </c>
-      <c r="G22" s="70">
+      <c r="G22" s="54">
         <v>34.25</v>
       </c>
       <c r="H22" s="49"/>
@@ -8313,14 +8312,14 @@
       <c r="D23" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="70">
+      <c r="E23" s="54">
         <v>10.9999</v>
       </c>
       <c r="F23" s="53">
         <f t="shared" si="0"/>
         <v>4.2810000000000005E-4</v>
       </c>
-      <c r="G23" s="70">
+      <c r="G23" s="54">
         <v>42.81</v>
       </c>
       <c r="H23" s="49"/>
@@ -8338,14 +8337,14 @@
       <c r="D24" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="70">
+      <c r="E24" s="54">
         <v>11.9999</v>
       </c>
       <c r="F24" s="53">
         <f t="shared" si="0"/>
         <v>5.1940000000000005E-4</v>
       </c>
-      <c r="G24" s="70">
+      <c r="G24" s="54">
         <v>51.94</v>
       </c>
       <c r="H24" s="49"/>
@@ -8363,14 +8362,14 @@
       <c r="D25" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="70">
+      <c r="E25" s="54">
         <v>13</v>
       </c>
       <c r="F25" s="53">
         <f t="shared" si="0"/>
         <v>6.1180000000000002E-4</v>
       </c>
-      <c r="G25" s="70">
+      <c r="G25" s="54">
         <v>61.18</v>
       </c>
       <c r="H25" s="49"/>
@@ -8388,14 +8387,14 @@
       <c r="D26" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="70">
+      <c r="E26" s="54">
         <v>14</v>
       </c>
       <c r="F26" s="53">
         <f t="shared" si="0"/>
         <v>7.0500000000000001E-4</v>
       </c>
-      <c r="G26" s="70">
+      <c r="G26" s="54">
         <v>70.5</v>
       </c>
       <c r="H26" s="49"/>
@@ -8413,14 +8412,14 @@
       <c r="D27" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="70">
+      <c r="E27" s="54">
         <v>13</v>
       </c>
       <c r="F27" s="53">
         <f t="shared" si="0"/>
         <v>6.1160000000000001E-4</v>
       </c>
-      <c r="G27" s="70">
+      <c r="G27" s="54">
         <v>61.16</v>
       </c>
       <c r="H27" s="49"/>
@@ -8438,14 +8437,14 @@
       <c r="D28" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="70">
+      <c r="E28" s="54">
         <v>11.9999</v>
       </c>
       <c r="F28" s="53">
         <f t="shared" si="0"/>
         <v>5.1869999999999998E-4</v>
       </c>
-      <c r="G28" s="70">
+      <c r="G28" s="54">
         <v>51.87</v>
       </c>
       <c r="H28" s="49"/>
@@ -8463,14 +8462,14 @@
       <c r="D29" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="70">
+      <c r="E29" s="54">
         <v>4.5</v>
       </c>
       <c r="F29" s="53">
         <f t="shared" si="0"/>
         <v>3.0200000000000002E-5</v>
       </c>
-      <c r="G29" s="70">
+      <c r="G29" s="54">
         <v>3.02</v>
       </c>
       <c r="H29" s="49"/>
@@ -8488,14 +8487,14 @@
       <c r="D30" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="70">
+      <c r="E30" s="54">
         <v>5</v>
       </c>
       <c r="F30" s="53">
         <f t="shared" si="0"/>
         <v>4.3239999999999999E-5</v>
       </c>
-      <c r="G30" s="70">
+      <c r="G30" s="54">
         <v>4.3239999999999998</v>
       </c>
       <c r="H30" s="49"/>
@@ -8513,14 +8512,14 @@
       <c r="D31" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="70">
+      <c r="E31" s="54">
         <v>5.5</v>
       </c>
       <c r="F31" s="53">
         <f t="shared" si="0"/>
         <v>5.9760000000000004E-5</v>
       </c>
-      <c r="G31" s="70">
+      <c r="G31" s="54">
         <v>5.976</v>
       </c>
       <c r="H31" s="49"/>
@@ -8538,14 +8537,14 @@
       <c r="D32" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="70">
+      <c r="E32" s="54">
         <v>6.0000999999999998</v>
       </c>
       <c r="F32" s="53">
         <f t="shared" si="0"/>
         <v>7.9710000000000008E-5</v>
       </c>
-      <c r="G32" s="70">
+      <c r="G32" s="54">
         <v>7.9710000000000001</v>
       </c>
       <c r="H32" s="49"/>
@@ -8563,14 +8562,14 @@
       <c r="D33" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="70">
+      <c r="E33" s="54">
         <v>6.5</v>
       </c>
       <c r="F33" s="53">
         <f t="shared" si="0"/>
         <v>1.0280000000000001E-4</v>
       </c>
-      <c r="G33" s="70">
+      <c r="G33" s="54">
         <v>10.28</v>
       </c>
       <c r="H33" s="49"/>
@@ -8588,14 +8587,14 @@
       <c r="D34" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="70">
+      <c r="E34" s="54">
         <v>7.0049999999999999</v>
       </c>
       <c r="F34" s="53">
         <f t="shared" si="0"/>
         <v>1.2980000000000001E-4</v>
       </c>
-      <c r="G34" s="70">
+      <c r="G34" s="54">
         <v>12.98</v>
       </c>
       <c r="H34" s="49"/>
@@ -8613,14 +8612,14 @@
       <c r="D35" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="70">
+      <c r="E35" s="54">
         <v>7.5049999999999999</v>
       </c>
       <c r="F35" s="53">
         <f t="shared" si="0"/>
         <v>1.594E-4</v>
       </c>
-      <c r="G35" s="70">
+      <c r="G35" s="54">
         <v>15.94</v>
       </c>
       <c r="H35" s="49"/>
@@ -8638,14 +8637,14 @@
       <c r="D36" t="s">
         <v>61</v>
       </c>
-      <c r="E36" s="70">
+      <c r="E36" s="54">
         <v>8</v>
       </c>
       <c r="F36" s="53">
         <f t="shared" si="0"/>
         <v>1.9140000000000002E-4</v>
       </c>
-      <c r="G36" s="70">
+      <c r="G36" s="54">
         <v>19.14</v>
       </c>
       <c r="H36" s="49"/>
@@ -9338,20 +9337,20 @@
     <row r="68" spans="1:9">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
-      <c r="C68" s="69">
+      <c r="C68" s="18">
         <v>1975</v>
       </c>
-      <c r="D68" s="69" t="s">
+      <c r="D68" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E68" s="69">
+      <c r="E68" s="18">
         <v>5.5</v>
       </c>
-      <c r="F68" s="69">
+      <c r="F68" s="18">
         <f t="shared" si="2"/>
         <v>1.773E-4</v>
       </c>
-      <c r="G68" s="69">
+      <c r="G68" s="18">
         <v>177.3</v>
       </c>
       <c r="I68">
@@ -9362,20 +9361,20 @@
     <row r="69" spans="1:9">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
-      <c r="C69" s="69">
+      <c r="C69" s="18">
         <v>1975</v>
       </c>
-      <c r="D69" s="69" t="s">
+      <c r="D69" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E69" s="69">
+      <c r="E69" s="18">
         <v>6</v>
       </c>
-      <c r="F69" s="69">
+      <c r="F69" s="18">
         <f t="shared" si="2"/>
         <v>2.364E-4</v>
       </c>
-      <c r="G69" s="69">
+      <c r="G69" s="18">
         <v>236.4</v>
       </c>
       <c r="I69">
@@ -9386,20 +9385,20 @@
     <row r="70" spans="1:9">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
-      <c r="C70" s="69">
+      <c r="C70" s="18">
         <v>1975</v>
       </c>
-      <c r="D70" s="69" t="s">
+      <c r="D70" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E70" s="69">
+      <c r="E70" s="18">
         <v>6.5</v>
       </c>
-      <c r="F70" s="69">
+      <c r="F70" s="18">
         <f t="shared" si="2"/>
         <v>3.0539999999999994E-4</v>
       </c>
-      <c r="G70" s="69">
+      <c r="G70" s="18">
         <v>305.39999999999998</v>
       </c>
       <c r="I70">
@@ -9410,20 +9409,20 @@
     <row r="71" spans="1:9">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
-      <c r="C71" s="69">
+      <c r="C71" s="18">
         <v>1975</v>
       </c>
-      <c r="D71" s="69" t="s">
+      <c r="D71" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E71" s="69">
+      <c r="E71" s="18">
         <v>7</v>
       </c>
-      <c r="F71" s="69">
+      <c r="F71" s="18">
         <f t="shared" si="2"/>
         <v>3.838E-4</v>
       </c>
-      <c r="G71" s="69">
+      <c r="G71" s="18">
         <v>383.8</v>
       </c>
       <c r="I71">
@@ -9434,20 +9433,20 @@
     <row r="72" spans="1:9">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
-      <c r="C72" s="69">
+      <c r="C72" s="18">
         <v>1975</v>
       </c>
-      <c r="D72" s="69" t="s">
+      <c r="D72" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E72" s="69">
+      <c r="E72" s="18">
         <v>7.5</v>
       </c>
-      <c r="F72" s="69">
+      <c r="F72" s="18">
         <f t="shared" si="2"/>
         <v>4.7110000000000001E-4</v>
       </c>
-      <c r="G72" s="69">
+      <c r="G72" s="18">
         <v>471.1</v>
       </c>
       <c r="I72">
@@ -9458,20 +9457,20 @@
     <row r="73" spans="1:9">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
-      <c r="C73" s="69">
+      <c r="C73" s="18">
         <v>1975</v>
       </c>
-      <c r="D73" s="69" t="s">
+      <c r="D73" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E73" s="69">
+      <c r="E73" s="18">
         <v>8</v>
       </c>
-      <c r="F73" s="69">
+      <c r="F73" s="18">
         <f t="shared" si="2"/>
         <v>5.6700000000000001E-4</v>
       </c>
-      <c r="G73" s="69">
+      <c r="G73" s="18">
         <v>567</v>
       </c>
       <c r="I73">
@@ -9482,20 +9481,20 @@
     <row r="74" spans="1:9">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
-      <c r="C74" s="69">
+      <c r="C74" s="18">
         <v>1975</v>
       </c>
-      <c r="D74" s="69" t="s">
+      <c r="D74" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E74" s="69">
+      <c r="E74" s="18">
         <v>8.5</v>
       </c>
-      <c r="F74" s="69">
+      <c r="F74" s="18">
         <f t="shared" si="2"/>
         <v>6.7099999999999994E-4</v>
       </c>
-      <c r="G74" s="69">
+      <c r="G74" s="18">
         <v>671</v>
       </c>
       <c r="I74">
@@ -9506,20 +9505,20 @@
     <row r="75" spans="1:9">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
-      <c r="C75" s="69">
+      <c r="C75" s="18">
         <v>1975</v>
       </c>
-      <c r="D75" s="69" t="s">
+      <c r="D75" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E75" s="69">
+      <c r="E75" s="18">
         <v>9</v>
       </c>
-      <c r="F75" s="69">
+      <c r="F75" s="18">
         <f t="shared" si="2"/>
         <v>7.8239999999999994E-4</v>
       </c>
-      <c r="G75" s="69">
+      <c r="G75" s="18">
         <v>782.4</v>
       </c>
       <c r="I75">
@@ -9530,20 +9529,20 @@
     <row r="76" spans="1:9">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
-      <c r="C76" s="69">
+      <c r="C76" s="18">
         <v>1975</v>
       </c>
-      <c r="D76" s="69" t="s">
+      <c r="D76" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E76" s="69">
+      <c r="E76" s="18">
         <v>9.5</v>
       </c>
-      <c r="F76" s="69">
+      <c r="F76" s="18">
         <f t="shared" si="2"/>
         <v>8.992999999999999E-4</v>
       </c>
-      <c r="G76" s="69">
+      <c r="G76" s="18">
         <v>899.3</v>
       </c>
       <c r="I76">
@@ -9554,20 +9553,20 @@
     <row r="77" spans="1:9">
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
-      <c r="C77" s="69">
+      <c r="C77" s="18">
         <v>1975</v>
       </c>
-      <c r="D77" s="69" t="s">
+      <c r="D77" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E77" s="69">
+      <c r="E77" s="18">
         <v>10</v>
       </c>
-      <c r="F77" s="69">
+      <c r="F77" s="18">
         <f t="shared" si="2"/>
         <v>1.0199999999999999E-3</v>
       </c>
-      <c r="G77" s="69">
+      <c r="G77" s="18">
         <v>1020</v>
       </c>
       <c r="I77">
@@ -9578,20 +9577,20 @@
     <row r="78" spans="1:9">
       <c r="A78" s="18"/>
       <c r="B78" s="18"/>
-      <c r="C78" s="69">
+      <c r="C78" s="18">
         <v>1975</v>
       </c>
-      <c r="D78" s="69" t="s">
+      <c r="D78" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E78" s="69">
+      <c r="E78" s="18">
         <v>11</v>
       </c>
-      <c r="F78" s="69">
+      <c r="F78" s="18">
         <f t="shared" si="2"/>
         <v>1.2689999999999999E-3</v>
       </c>
-      <c r="G78" s="69">
+      <c r="G78" s="18">
         <v>1269</v>
       </c>
       <c r="I78">
@@ -9602,20 +9601,20 @@
     <row r="79" spans="1:9">
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
-      <c r="C79" s="69">
+      <c r="C79" s="18">
         <v>1975</v>
       </c>
-      <c r="D79" s="69" t="s">
+      <c r="D79" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E79" s="69">
+      <c r="E79" s="18">
         <v>12</v>
       </c>
-      <c r="F79" s="69">
+      <c r="F79" s="18">
         <f t="shared" si="2"/>
         <v>1.542E-3</v>
       </c>
-      <c r="G79" s="69">
+      <c r="G79" s="18">
         <v>1542</v>
       </c>
       <c r="I79">
@@ -9626,20 +9625,20 @@
     <row r="80" spans="1:9">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
-      <c r="C80" s="69">
+      <c r="C80" s="18">
         <v>1975</v>
       </c>
-      <c r="D80" s="69" t="s">
+      <c r="D80" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E80" s="69">
+      <c r="E80" s="18">
         <v>13</v>
       </c>
-      <c r="F80" s="69">
+      <c r="F80" s="18">
         <f t="shared" si="2"/>
         <v>1.8169999999999998E-3</v>
       </c>
-      <c r="G80" s="69">
+      <c r="G80" s="18">
         <v>1817</v>
       </c>
       <c r="I80">
@@ -9650,20 +9649,20 @@
     <row r="81" spans="1:9">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
-      <c r="C81" s="69">
+      <c r="C81" s="18">
         <v>1975</v>
       </c>
-      <c r="D81" s="69" t="s">
+      <c r="D81" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E81" s="69">
+      <c r="E81" s="18">
         <v>14</v>
       </c>
-      <c r="F81" s="69">
+      <c r="F81" s="18">
         <f t="shared" si="2"/>
         <v>2.1080000000000001E-3</v>
       </c>
-      <c r="G81" s="69">
+      <c r="G81" s="18">
         <v>2108</v>
       </c>
       <c r="I81">
@@ -10225,113 +10224,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="22" customFormat="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
     </row>
     <row r="2" spans="1:18" s="15" customFormat="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A3" s="58"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="61" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="61"/>
       <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="61" t="s">
         <v>8</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="55" t="s">
+      <c r="P3" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="55" t="s">
+      <c r="Q3" s="61" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="7" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
       <c r="O4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
     </row>
     <row r="5" spans="1:18" s="17" customFormat="1" ht="19.5" thickBot="1">
-      <c r="A5" s="64"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
@@ -10347,9 +10346,9 @@
       <c r="I5" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
       <c r="O5" s="10" t="s">
         <v>22</v>
       </c>
@@ -11469,74 +11468,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="21" customFormat="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:18" s="14" customFormat="1">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:18" s="6" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A3" s="58"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="61" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
       <c r="I3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
     </row>
     <row r="4" spans="1:18" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="61"/>
       <c r="H4" s="6" t="s">
         <v>103</v>
       </c>
@@ -11549,17 +11548,17 @@
       <c r="K4" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
     </row>
     <row r="5" spans="1:18" s="10" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="64"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
@@ -11572,9 +11571,9 @@
       <c r="J5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
@@ -12188,6 +12187,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="A3:A5"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F3:H3"/>
@@ -12196,12 +12201,6 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -12212,7 +12211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB183BD-6D7F-D049-90C4-D4B415FD13C0}">
   <dimension ref="A1:J289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
@@ -12231,75 +12230,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="14"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="58"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="61" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
       <c r="I3" s="8"/>
       <c r="J3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="58"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A5" s="64"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
@@ -17636,81 +17635,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="21" customFormat="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:16" s="15" customFormat="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A3" s="58"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="61" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
       <c r="I3" s="8"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:16" s="4" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
       <c r="I4" s="8"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
     </row>
     <row r="5" spans="1:16" s="17" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="64"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
@@ -18911,63 +18910,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="21" customFormat="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:18" s="15" customFormat="1">
       <c r="A2" s="14"/>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:18" s="4" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A3" s="58"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="61" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
       <c r="O3" s="6"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
     </row>
     <row r="4" spans="1:18" s="4" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
@@ -18983,18 +18982,18 @@
       <c r="I4" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
     </row>
     <row r="5" spans="1:18" s="17" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A5" s="64"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
@@ -19010,9 +19009,9 @@
       <c r="I5" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
       <c r="O5" s="10"/>
       <c r="P5" s="13"/>
       <c r="Q5" s="16"/>
@@ -19100,6 +19099,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="B2:I2"/>
@@ -19107,11 +19111,6 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -19146,39 +19145,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="21" customFormat="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:18" s="14" customFormat="1">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
     </row>
     <row r="3" spans="1:18" s="6" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A3" s="58"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="61" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -19187,30 +19186,30 @@
       <c r="F3" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="55" t="s">
+      <c r="M3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="N3" s="61" t="s">
         <v>8</v>
       </c>
       <c r="O3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="55" t="s">
+      <c r="P3" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="55" t="s">
+      <c r="Q3" s="61" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:18" s="6" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A4" s="58"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
@@ -19219,20 +19218,20 @@
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
       <c r="O4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
     </row>
     <row r="5" spans="1:18" s="10" customFormat="1" ht="19.5" thickBot="1">
-      <c r="A5" s="64"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="10" t="s">
         <v>22</v>
       </c>
@@ -19248,9 +19247,9 @@
       <c r="I5" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
       <c r="O5" s="10" t="s">
         <v>22</v>
       </c>
@@ -19321,17 +19320,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="D3:D5"/>
-    <mergeCell ref="L3:L5"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:N5"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
